--- a/2/1/UF-IVP diaria 1980 - Diaria.xlsx
+++ b/2/1/UF-IVP diaria 1980 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>Serie</t>
   </si>
@@ -25,1102 +25,1099 @@
     <t>Indice de valor promedio (IVP)</t>
   </si>
   <si>
-    <t>01-01-1980</t>
-  </si>
-  <si>
-    <t>02-01-1980</t>
-  </si>
-  <si>
-    <t>03-01-1980</t>
-  </si>
-  <si>
-    <t>04-01-1980</t>
-  </si>
-  <si>
-    <t>05-01-1980</t>
-  </si>
-  <si>
-    <t>06-01-1980</t>
-  </si>
-  <si>
-    <t>07-01-1980</t>
-  </si>
-  <si>
-    <t>08-01-1980</t>
-  </si>
-  <si>
-    <t>09-01-1980</t>
-  </si>
-  <si>
-    <t>10-01-1980</t>
-  </si>
-  <si>
-    <t>11-01-1980</t>
-  </si>
-  <si>
-    <t>12-01-1980</t>
-  </si>
-  <si>
-    <t>13-01-1980</t>
-  </si>
-  <si>
-    <t>14-01-1980</t>
-  </si>
-  <si>
-    <t>15-01-1980</t>
-  </si>
-  <si>
-    <t>16-01-1980</t>
-  </si>
-  <si>
-    <t>17-01-1980</t>
-  </si>
-  <si>
-    <t>18-01-1980</t>
-  </si>
-  <si>
-    <t>19-01-1980</t>
-  </si>
-  <si>
-    <t>20-01-1980</t>
-  </si>
-  <si>
-    <t>21-01-1980</t>
-  </si>
-  <si>
-    <t>22-01-1980</t>
-  </si>
-  <si>
-    <t>23-01-1980</t>
-  </si>
-  <si>
-    <t>24-01-1980</t>
-  </si>
-  <si>
-    <t>25-01-1980</t>
-  </si>
-  <si>
-    <t>26-01-1980</t>
-  </si>
-  <si>
-    <t>27-01-1980</t>
-  </si>
-  <si>
-    <t>28-01-1980</t>
-  </si>
-  <si>
-    <t>29-01-1980</t>
-  </si>
-  <si>
-    <t>30-01-1980</t>
-  </si>
-  <si>
-    <t>31-01-1980</t>
-  </si>
-  <si>
-    <t>01-02-1980</t>
-  </si>
-  <si>
-    <t>02-02-1980</t>
-  </si>
-  <si>
-    <t>03-02-1980</t>
-  </si>
-  <si>
-    <t>04-02-1980</t>
-  </si>
-  <si>
-    <t>05-02-1980</t>
-  </si>
-  <si>
-    <t>06-02-1980</t>
-  </si>
-  <si>
-    <t>07-02-1980</t>
-  </si>
-  <si>
-    <t>08-02-1980</t>
-  </si>
-  <si>
-    <t>09-02-1980</t>
-  </si>
-  <si>
-    <t>10-02-1980</t>
-  </si>
-  <si>
-    <t>11-02-1980</t>
-  </si>
-  <si>
-    <t>12-02-1980</t>
-  </si>
-  <si>
-    <t>13-02-1980</t>
-  </si>
-  <si>
-    <t>14-02-1980</t>
-  </si>
-  <si>
-    <t>15-02-1980</t>
-  </si>
-  <si>
-    <t>16-02-1980</t>
-  </si>
-  <si>
-    <t>17-02-1980</t>
-  </si>
-  <si>
-    <t>18-02-1980</t>
-  </si>
-  <si>
-    <t>19-02-1980</t>
-  </si>
-  <si>
-    <t>20-02-1980</t>
-  </si>
-  <si>
-    <t>21-02-1980</t>
-  </si>
-  <si>
-    <t>22-02-1980</t>
-  </si>
-  <si>
-    <t>23-02-1980</t>
-  </si>
-  <si>
-    <t>24-02-1980</t>
-  </si>
-  <si>
-    <t>25-02-1980</t>
-  </si>
-  <si>
-    <t>26-02-1980</t>
-  </si>
-  <si>
-    <t>27-02-1980</t>
-  </si>
-  <si>
-    <t>28-02-1980</t>
-  </si>
-  <si>
-    <t>29-02-1980</t>
-  </si>
-  <si>
-    <t>01-03-1980</t>
-  </si>
-  <si>
-    <t>02-03-1980</t>
-  </si>
-  <si>
-    <t>03-03-1980</t>
-  </si>
-  <si>
-    <t>04-03-1980</t>
-  </si>
-  <si>
-    <t>05-03-1980</t>
-  </si>
-  <si>
-    <t>06-03-1980</t>
-  </si>
-  <si>
-    <t>07-03-1980</t>
-  </si>
-  <si>
-    <t>08-03-1980</t>
-  </si>
-  <si>
-    <t>09-03-1980</t>
-  </si>
-  <si>
-    <t>10-03-1980</t>
-  </si>
-  <si>
-    <t>11-03-1980</t>
-  </si>
-  <si>
-    <t>12-03-1980</t>
-  </si>
-  <si>
-    <t>13-03-1980</t>
-  </si>
-  <si>
-    <t>14-03-1980</t>
-  </si>
-  <si>
-    <t>15-03-1980</t>
-  </si>
-  <si>
-    <t>16-03-1980</t>
-  </si>
-  <si>
-    <t>17-03-1980</t>
-  </si>
-  <si>
-    <t>18-03-1980</t>
-  </si>
-  <si>
-    <t>19-03-1980</t>
-  </si>
-  <si>
-    <t>20-03-1980</t>
-  </si>
-  <si>
-    <t>21-03-1980</t>
-  </si>
-  <si>
-    <t>22-03-1980</t>
-  </si>
-  <si>
-    <t>23-03-1980</t>
-  </si>
-  <si>
-    <t>24-03-1980</t>
-  </si>
-  <si>
-    <t>25-03-1980</t>
-  </si>
-  <si>
-    <t>26-03-1980</t>
-  </si>
-  <si>
-    <t>27-03-1980</t>
-  </si>
-  <si>
-    <t>28-03-1980</t>
-  </si>
-  <si>
-    <t>29-03-1980</t>
-  </si>
-  <si>
-    <t>30-03-1980</t>
-  </si>
-  <si>
-    <t>31-03-1980</t>
-  </si>
-  <si>
-    <t>01-04-1980</t>
-  </si>
-  <si>
-    <t>02-04-1980</t>
-  </si>
-  <si>
-    <t>03-04-1980</t>
-  </si>
-  <si>
-    <t>04-04-1980</t>
-  </si>
-  <si>
-    <t>05-04-1980</t>
-  </si>
-  <si>
-    <t>06-04-1980</t>
-  </si>
-  <si>
-    <t>07-04-1980</t>
-  </si>
-  <si>
-    <t>08-04-1980</t>
-  </si>
-  <si>
-    <t>09-04-1980</t>
-  </si>
-  <si>
-    <t>10-04-1980</t>
-  </si>
-  <si>
-    <t>11-04-1980</t>
-  </si>
-  <si>
-    <t>12-04-1980</t>
-  </si>
-  <si>
-    <t>13-04-1980</t>
-  </si>
-  <si>
-    <t>14-04-1980</t>
-  </si>
-  <si>
-    <t>15-04-1980</t>
-  </si>
-  <si>
-    <t>16-04-1980</t>
-  </si>
-  <si>
-    <t>17-04-1980</t>
-  </si>
-  <si>
-    <t>18-04-1980</t>
-  </si>
-  <si>
-    <t>19-04-1980</t>
-  </si>
-  <si>
-    <t>20-04-1980</t>
-  </si>
-  <si>
-    <t>21-04-1980</t>
-  </si>
-  <si>
-    <t>22-04-1980</t>
-  </si>
-  <si>
-    <t>23-04-1980</t>
-  </si>
-  <si>
-    <t>24-04-1980</t>
-  </si>
-  <si>
-    <t>25-04-1980</t>
-  </si>
-  <si>
-    <t>26-04-1980</t>
-  </si>
-  <si>
-    <t>27-04-1980</t>
-  </si>
-  <si>
-    <t>28-04-1980</t>
-  </si>
-  <si>
-    <t>29-04-1980</t>
-  </si>
-  <si>
-    <t>30-04-1980</t>
-  </si>
-  <si>
-    <t>01-05-1980</t>
-  </si>
-  <si>
-    <t>02-05-1980</t>
-  </si>
-  <si>
-    <t>03-05-1980</t>
-  </si>
-  <si>
-    <t>04-05-1980</t>
-  </si>
-  <si>
-    <t>05-05-1980</t>
-  </si>
-  <si>
-    <t>06-05-1980</t>
-  </si>
-  <si>
-    <t>07-05-1980</t>
-  </si>
-  <si>
-    <t>08-05-1980</t>
-  </si>
-  <si>
-    <t>09-05-1980</t>
-  </si>
-  <si>
-    <t>10-05-1980</t>
-  </si>
-  <si>
-    <t>11-05-1980</t>
-  </si>
-  <si>
-    <t>12-05-1980</t>
-  </si>
-  <si>
-    <t>13-05-1980</t>
-  </si>
-  <si>
-    <t>14-05-1980</t>
-  </si>
-  <si>
-    <t>15-05-1980</t>
-  </si>
-  <si>
-    <t>16-05-1980</t>
-  </si>
-  <si>
-    <t>17-05-1980</t>
-  </si>
-  <si>
-    <t>18-05-1980</t>
-  </si>
-  <si>
-    <t>19-05-1980</t>
-  </si>
-  <si>
-    <t>20-05-1980</t>
-  </si>
-  <si>
-    <t>21-05-1980</t>
-  </si>
-  <si>
-    <t>22-05-1980</t>
-  </si>
-  <si>
-    <t>23-05-1980</t>
-  </si>
-  <si>
-    <t>24-05-1980</t>
-  </si>
-  <si>
-    <t>25-05-1980</t>
-  </si>
-  <si>
-    <t>26-05-1980</t>
-  </si>
-  <si>
-    <t>27-05-1980</t>
-  </si>
-  <si>
-    <t>28-05-1980</t>
-  </si>
-  <si>
-    <t>29-05-1980</t>
-  </si>
-  <si>
-    <t>30-05-1980</t>
-  </si>
-  <si>
-    <t>31-05-1980</t>
-  </si>
-  <si>
-    <t>01-06-1980</t>
-  </si>
-  <si>
-    <t>02-06-1980</t>
-  </si>
-  <si>
-    <t>03-06-1980</t>
-  </si>
-  <si>
-    <t>04-06-1980</t>
-  </si>
-  <si>
-    <t>05-06-1980</t>
-  </si>
-  <si>
-    <t>06-06-1980</t>
-  </si>
-  <si>
-    <t>07-06-1980</t>
-  </si>
-  <si>
-    <t>08-06-1980</t>
-  </si>
-  <si>
-    <t>09-06-1980</t>
-  </si>
-  <si>
-    <t>10-06-1980</t>
-  </si>
-  <si>
-    <t>11-06-1980</t>
-  </si>
-  <si>
-    <t>12-06-1980</t>
-  </si>
-  <si>
-    <t>13-06-1980</t>
-  </si>
-  <si>
-    <t>14-06-1980</t>
-  </si>
-  <si>
-    <t>15-06-1980</t>
-  </si>
-  <si>
-    <t>16-06-1980</t>
-  </si>
-  <si>
-    <t>17-06-1980</t>
-  </si>
-  <si>
-    <t>18-06-1980</t>
-  </si>
-  <si>
-    <t>19-06-1980</t>
-  </si>
-  <si>
-    <t>20-06-1980</t>
-  </si>
-  <si>
-    <t>21-06-1980</t>
-  </si>
-  <si>
-    <t>22-06-1980</t>
-  </si>
-  <si>
-    <t>23-06-1980</t>
-  </si>
-  <si>
-    <t>24-06-1980</t>
-  </si>
-  <si>
-    <t>25-06-1980</t>
-  </si>
-  <si>
-    <t>26-06-1980</t>
-  </si>
-  <si>
-    <t>27-06-1980</t>
-  </si>
-  <si>
-    <t>28-06-1980</t>
-  </si>
-  <si>
-    <t>29-06-1980</t>
-  </si>
-  <si>
-    <t>30-06-1980</t>
-  </si>
-  <si>
-    <t>01-07-1980</t>
-  </si>
-  <si>
-    <t>02-07-1980</t>
-  </si>
-  <si>
-    <t>03-07-1980</t>
-  </si>
-  <si>
-    <t>04-07-1980</t>
-  </si>
-  <si>
-    <t>05-07-1980</t>
-  </si>
-  <si>
-    <t>06-07-1980</t>
-  </si>
-  <si>
-    <t>07-07-1980</t>
-  </si>
-  <si>
-    <t>08-07-1980</t>
-  </si>
-  <si>
-    <t>09-07-1980</t>
-  </si>
-  <si>
-    <t>10-07-1980</t>
-  </si>
-  <si>
-    <t>11-07-1980</t>
-  </si>
-  <si>
-    <t>12-07-1980</t>
-  </si>
-  <si>
-    <t>13-07-1980</t>
-  </si>
-  <si>
-    <t>14-07-1980</t>
-  </si>
-  <si>
-    <t>15-07-1980</t>
-  </si>
-  <si>
-    <t>16-07-1980</t>
-  </si>
-  <si>
-    <t>17-07-1980</t>
-  </si>
-  <si>
-    <t>18-07-1980</t>
-  </si>
-  <si>
-    <t>19-07-1980</t>
-  </si>
-  <si>
-    <t>20-07-1980</t>
-  </si>
-  <si>
-    <t>21-07-1980</t>
-  </si>
-  <si>
-    <t>22-07-1980</t>
-  </si>
-  <si>
-    <t>23-07-1980</t>
-  </si>
-  <si>
-    <t>24-07-1980</t>
-  </si>
-  <si>
-    <t>25-07-1980</t>
-  </si>
-  <si>
-    <t>26-07-1980</t>
-  </si>
-  <si>
-    <t>27-07-1980</t>
-  </si>
-  <si>
-    <t>28-07-1980</t>
-  </si>
-  <si>
-    <t>29-07-1980</t>
-  </si>
-  <si>
-    <t>30-07-1980</t>
-  </si>
-  <si>
-    <t>31-07-1980</t>
-  </si>
-  <si>
-    <t>01-08-1980</t>
-  </si>
-  <si>
-    <t>02-08-1980</t>
-  </si>
-  <si>
-    <t>03-08-1980</t>
-  </si>
-  <si>
-    <t>04-08-1980</t>
-  </si>
-  <si>
-    <t>05-08-1980</t>
-  </si>
-  <si>
-    <t>06-08-1980</t>
-  </si>
-  <si>
-    <t>07-08-1980</t>
-  </si>
-  <si>
-    <t>08-08-1980</t>
-  </si>
-  <si>
-    <t>09-08-1980</t>
-  </si>
-  <si>
-    <t>10-08-1980</t>
-  </si>
-  <si>
-    <t>11-08-1980</t>
-  </si>
-  <si>
-    <t>12-08-1980</t>
-  </si>
-  <si>
-    <t>13-08-1980</t>
-  </si>
-  <si>
-    <t>14-08-1980</t>
-  </si>
-  <si>
-    <t>15-08-1980</t>
-  </si>
-  <si>
-    <t>16-08-1980</t>
-  </si>
-  <si>
-    <t>17-08-1980</t>
-  </si>
-  <si>
-    <t>18-08-1980</t>
-  </si>
-  <si>
-    <t>19-08-1980</t>
-  </si>
-  <si>
-    <t>20-08-1980</t>
-  </si>
-  <si>
-    <t>21-08-1980</t>
-  </si>
-  <si>
-    <t>22-08-1980</t>
-  </si>
-  <si>
-    <t>23-08-1980</t>
-  </si>
-  <si>
-    <t>24-08-1980</t>
-  </si>
-  <si>
-    <t>25-08-1980</t>
-  </si>
-  <si>
-    <t>26-08-1980</t>
-  </si>
-  <si>
-    <t>27-08-1980</t>
-  </si>
-  <si>
-    <t>28-08-1980</t>
-  </si>
-  <si>
-    <t>29-08-1980</t>
-  </si>
-  <si>
-    <t>30-08-1980</t>
-  </si>
-  <si>
-    <t>31-08-1980</t>
-  </si>
-  <si>
-    <t>01-09-1980</t>
-  </si>
-  <si>
-    <t>02-09-1980</t>
-  </si>
-  <si>
-    <t>03-09-1980</t>
-  </si>
-  <si>
-    <t>04-09-1980</t>
-  </si>
-  <si>
-    <t>05-09-1980</t>
-  </si>
-  <si>
-    <t>06-09-1980</t>
-  </si>
-  <si>
-    <t>07-09-1980</t>
-  </si>
-  <si>
-    <t>08-09-1980</t>
-  </si>
-  <si>
-    <t>09-09-1980</t>
-  </si>
-  <si>
-    <t>10-09-1980</t>
-  </si>
-  <si>
-    <t>11-09-1980</t>
-  </si>
-  <si>
-    <t>12-09-1980</t>
-  </si>
-  <si>
-    <t>13-09-1980</t>
-  </si>
-  <si>
-    <t>14-09-1980</t>
-  </si>
-  <si>
-    <t>15-09-1980</t>
-  </si>
-  <si>
-    <t>16-09-1980</t>
-  </si>
-  <si>
-    <t>17-09-1980</t>
-  </si>
-  <si>
-    <t>18-09-1980</t>
-  </si>
-  <si>
-    <t>19-09-1980</t>
-  </si>
-  <si>
-    <t>20-09-1980</t>
-  </si>
-  <si>
-    <t>21-09-1980</t>
-  </si>
-  <si>
-    <t>22-09-1980</t>
-  </si>
-  <si>
-    <t>23-09-1980</t>
-  </si>
-  <si>
-    <t>24-09-1980</t>
-  </si>
-  <si>
-    <t>25-09-1980</t>
-  </si>
-  <si>
-    <t>26-09-1980</t>
-  </si>
-  <si>
-    <t>27-09-1980</t>
-  </si>
-  <si>
-    <t>28-09-1980</t>
-  </si>
-  <si>
-    <t>29-09-1980</t>
-  </si>
-  <si>
-    <t>30-09-1980</t>
-  </si>
-  <si>
-    <t>01-10-1980</t>
-  </si>
-  <si>
-    <t>02-10-1980</t>
-  </si>
-  <si>
-    <t>03-10-1980</t>
-  </si>
-  <si>
-    <t>04-10-1980</t>
-  </si>
-  <si>
-    <t>05-10-1980</t>
-  </si>
-  <si>
-    <t>06-10-1980</t>
-  </si>
-  <si>
-    <t>07-10-1980</t>
-  </si>
-  <si>
-    <t>08-10-1980</t>
-  </si>
-  <si>
-    <t>09-10-1980</t>
-  </si>
-  <si>
-    <t>10-10-1980</t>
-  </si>
-  <si>
-    <t>11-10-1980</t>
-  </si>
-  <si>
-    <t>12-10-1980</t>
-  </si>
-  <si>
-    <t>13-10-1980</t>
-  </si>
-  <si>
-    <t>14-10-1980</t>
-  </si>
-  <si>
-    <t>15-10-1980</t>
-  </si>
-  <si>
-    <t>16-10-1980</t>
-  </si>
-  <si>
-    <t>17-10-1980</t>
-  </si>
-  <si>
-    <t>18-10-1980</t>
-  </si>
-  <si>
-    <t>19-10-1980</t>
-  </si>
-  <si>
-    <t>20-10-1980</t>
-  </si>
-  <si>
-    <t>21-10-1980</t>
-  </si>
-  <si>
-    <t>22-10-1980</t>
-  </si>
-  <si>
-    <t>23-10-1980</t>
-  </si>
-  <si>
-    <t>24-10-1980</t>
-  </si>
-  <si>
-    <t>25-10-1980</t>
-  </si>
-  <si>
-    <t>26-10-1980</t>
-  </si>
-  <si>
-    <t>27-10-1980</t>
-  </si>
-  <si>
-    <t>28-10-1980</t>
-  </si>
-  <si>
-    <t>29-10-1980</t>
-  </si>
-  <si>
-    <t>30-10-1980</t>
-  </si>
-  <si>
-    <t>31-10-1980</t>
-  </si>
-  <si>
-    <t>01-11-1980</t>
-  </si>
-  <si>
-    <t>02-11-1980</t>
-  </si>
-  <si>
-    <t>03-11-1980</t>
-  </si>
-  <si>
-    <t>04-11-1980</t>
-  </si>
-  <si>
-    <t>05-11-1980</t>
-  </si>
-  <si>
-    <t>06-11-1980</t>
-  </si>
-  <si>
-    <t>07-11-1980</t>
-  </si>
-  <si>
-    <t>08-11-1980</t>
-  </si>
-  <si>
-    <t>09-11-1980</t>
-  </si>
-  <si>
-    <t>10-11-1980</t>
-  </si>
-  <si>
-    <t>11-11-1980</t>
-  </si>
-  <si>
-    <t>12-11-1980</t>
-  </si>
-  <si>
-    <t>13-11-1980</t>
-  </si>
-  <si>
-    <t>14-11-1980</t>
-  </si>
-  <si>
-    <t>15-11-1980</t>
-  </si>
-  <si>
-    <t>16-11-1980</t>
-  </si>
-  <si>
-    <t>17-11-1980</t>
-  </si>
-  <si>
-    <t>18-11-1980</t>
-  </si>
-  <si>
-    <t>19-11-1980</t>
-  </si>
-  <si>
-    <t>20-11-1980</t>
-  </si>
-  <si>
-    <t>21-11-1980</t>
-  </si>
-  <si>
-    <t>22-11-1980</t>
-  </si>
-  <si>
-    <t>23-11-1980</t>
-  </si>
-  <si>
-    <t>24-11-1980</t>
-  </si>
-  <si>
-    <t>25-11-1980</t>
-  </si>
-  <si>
-    <t>26-11-1980</t>
-  </si>
-  <si>
-    <t>27-11-1980</t>
-  </si>
-  <si>
-    <t>28-11-1980</t>
-  </si>
-  <si>
-    <t>29-11-1980</t>
-  </si>
-  <si>
-    <t>30-11-1980</t>
-  </si>
-  <si>
-    <t>01-12-1980</t>
-  </si>
-  <si>
-    <t>02-12-1980</t>
-  </si>
-  <si>
-    <t>03-12-1980</t>
-  </si>
-  <si>
-    <t>04-12-1980</t>
-  </si>
-  <si>
-    <t>05-12-1980</t>
-  </si>
-  <si>
-    <t>06-12-1980</t>
-  </si>
-  <si>
-    <t>07-12-1980</t>
-  </si>
-  <si>
-    <t>08-12-1980</t>
-  </si>
-  <si>
-    <t>09-12-1980</t>
-  </si>
-  <si>
-    <t>10-12-1980</t>
-  </si>
-  <si>
-    <t>11-12-1980</t>
-  </si>
-  <si>
-    <t>12-12-1980</t>
-  </si>
-  <si>
-    <t>13-12-1980</t>
-  </si>
-  <si>
-    <t>14-12-1980</t>
-  </si>
-  <si>
-    <t>15-12-1980</t>
-  </si>
-  <si>
-    <t>16-12-1980</t>
-  </si>
-  <si>
-    <t>17-12-1980</t>
-  </si>
-  <si>
-    <t>18-12-1980</t>
-  </si>
-  <si>
-    <t>19-12-1980</t>
-  </si>
-  <si>
-    <t>20-12-1980</t>
-  </si>
-  <si>
-    <t>21-12-1980</t>
-  </si>
-  <si>
-    <t>22-12-1980</t>
-  </si>
-  <si>
-    <t>23-12-1980</t>
-  </si>
-  <si>
-    <t>24-12-1980</t>
-  </si>
-  <si>
-    <t>25-12-1980</t>
-  </si>
-  <si>
-    <t>26-12-1980</t>
-  </si>
-  <si>
-    <t>27-12-1980</t>
-  </si>
-  <si>
-    <t>28-12-1980</t>
-  </si>
-  <si>
-    <t>29-12-1980</t>
-  </si>
-  <si>
-    <t>30-12-1980</t>
-  </si>
-  <si>
-    <t>31-12-1980</t>
+    <t>01-01-1979</t>
+  </si>
+  <si>
+    <t>02-01-1979</t>
+  </si>
+  <si>
+    <t>03-01-1979</t>
+  </si>
+  <si>
+    <t>04-01-1979</t>
+  </si>
+  <si>
+    <t>05-01-1979</t>
+  </si>
+  <si>
+    <t>06-01-1979</t>
+  </si>
+  <si>
+    <t>07-01-1979</t>
+  </si>
+  <si>
+    <t>08-01-1979</t>
+  </si>
+  <si>
+    <t>09-01-1979</t>
+  </si>
+  <si>
+    <t>10-01-1979</t>
+  </si>
+  <si>
+    <t>11-01-1979</t>
+  </si>
+  <si>
+    <t>12-01-1979</t>
+  </si>
+  <si>
+    <t>13-01-1979</t>
+  </si>
+  <si>
+    <t>14-01-1979</t>
+  </si>
+  <si>
+    <t>15-01-1979</t>
+  </si>
+  <si>
+    <t>16-01-1979</t>
+  </si>
+  <si>
+    <t>17-01-1979</t>
+  </si>
+  <si>
+    <t>18-01-1979</t>
+  </si>
+  <si>
+    <t>19-01-1979</t>
+  </si>
+  <si>
+    <t>20-01-1979</t>
+  </si>
+  <si>
+    <t>21-01-1979</t>
+  </si>
+  <si>
+    <t>22-01-1979</t>
+  </si>
+  <si>
+    <t>23-01-1979</t>
+  </si>
+  <si>
+    <t>24-01-1979</t>
+  </si>
+  <si>
+    <t>25-01-1979</t>
+  </si>
+  <si>
+    <t>26-01-1979</t>
+  </si>
+  <si>
+    <t>27-01-1979</t>
+  </si>
+  <si>
+    <t>28-01-1979</t>
+  </si>
+  <si>
+    <t>29-01-1979</t>
+  </si>
+  <si>
+    <t>30-01-1979</t>
+  </si>
+  <si>
+    <t>31-01-1979</t>
+  </si>
+  <si>
+    <t>01-02-1979</t>
+  </si>
+  <si>
+    <t>02-02-1979</t>
+  </si>
+  <si>
+    <t>03-02-1979</t>
+  </si>
+  <si>
+    <t>04-02-1979</t>
+  </si>
+  <si>
+    <t>05-02-1979</t>
+  </si>
+  <si>
+    <t>06-02-1979</t>
+  </si>
+  <si>
+    <t>07-02-1979</t>
+  </si>
+  <si>
+    <t>08-02-1979</t>
+  </si>
+  <si>
+    <t>09-02-1979</t>
+  </si>
+  <si>
+    <t>10-02-1979</t>
+  </si>
+  <si>
+    <t>11-02-1979</t>
+  </si>
+  <si>
+    <t>12-02-1979</t>
+  </si>
+  <si>
+    <t>13-02-1979</t>
+  </si>
+  <si>
+    <t>14-02-1979</t>
+  </si>
+  <si>
+    <t>15-02-1979</t>
+  </si>
+  <si>
+    <t>16-02-1979</t>
+  </si>
+  <si>
+    <t>17-02-1979</t>
+  </si>
+  <si>
+    <t>18-02-1979</t>
+  </si>
+  <si>
+    <t>19-02-1979</t>
+  </si>
+  <si>
+    <t>20-02-1979</t>
+  </si>
+  <si>
+    <t>21-02-1979</t>
+  </si>
+  <si>
+    <t>22-02-1979</t>
+  </si>
+  <si>
+    <t>23-02-1979</t>
+  </si>
+  <si>
+    <t>24-02-1979</t>
+  </si>
+  <si>
+    <t>25-02-1979</t>
+  </si>
+  <si>
+    <t>26-02-1979</t>
+  </si>
+  <si>
+    <t>27-02-1979</t>
+  </si>
+  <si>
+    <t>28-02-1979</t>
+  </si>
+  <si>
+    <t>01-03-1979</t>
+  </si>
+  <si>
+    <t>02-03-1979</t>
+  </si>
+  <si>
+    <t>03-03-1979</t>
+  </si>
+  <si>
+    <t>04-03-1979</t>
+  </si>
+  <si>
+    <t>05-03-1979</t>
+  </si>
+  <si>
+    <t>06-03-1979</t>
+  </si>
+  <si>
+    <t>07-03-1979</t>
+  </si>
+  <si>
+    <t>08-03-1979</t>
+  </si>
+  <si>
+    <t>09-03-1979</t>
+  </si>
+  <si>
+    <t>10-03-1979</t>
+  </si>
+  <si>
+    <t>11-03-1979</t>
+  </si>
+  <si>
+    <t>12-03-1979</t>
+  </si>
+  <si>
+    <t>13-03-1979</t>
+  </si>
+  <si>
+    <t>14-03-1979</t>
+  </si>
+  <si>
+    <t>15-03-1979</t>
+  </si>
+  <si>
+    <t>16-03-1979</t>
+  </si>
+  <si>
+    <t>17-03-1979</t>
+  </si>
+  <si>
+    <t>18-03-1979</t>
+  </si>
+  <si>
+    <t>19-03-1979</t>
+  </si>
+  <si>
+    <t>20-03-1979</t>
+  </si>
+  <si>
+    <t>21-03-1979</t>
+  </si>
+  <si>
+    <t>22-03-1979</t>
+  </si>
+  <si>
+    <t>23-03-1979</t>
+  </si>
+  <si>
+    <t>24-03-1979</t>
+  </si>
+  <si>
+    <t>25-03-1979</t>
+  </si>
+  <si>
+    <t>26-03-1979</t>
+  </si>
+  <si>
+    <t>27-03-1979</t>
+  </si>
+  <si>
+    <t>28-03-1979</t>
+  </si>
+  <si>
+    <t>29-03-1979</t>
+  </si>
+  <si>
+    <t>30-03-1979</t>
+  </si>
+  <si>
+    <t>31-03-1979</t>
+  </si>
+  <si>
+    <t>01-04-1979</t>
+  </si>
+  <si>
+    <t>02-04-1979</t>
+  </si>
+  <si>
+    <t>03-04-1979</t>
+  </si>
+  <si>
+    <t>04-04-1979</t>
+  </si>
+  <si>
+    <t>05-04-1979</t>
+  </si>
+  <si>
+    <t>06-04-1979</t>
+  </si>
+  <si>
+    <t>07-04-1979</t>
+  </si>
+  <si>
+    <t>08-04-1979</t>
+  </si>
+  <si>
+    <t>09-04-1979</t>
+  </si>
+  <si>
+    <t>10-04-1979</t>
+  </si>
+  <si>
+    <t>11-04-1979</t>
+  </si>
+  <si>
+    <t>12-04-1979</t>
+  </si>
+  <si>
+    <t>13-04-1979</t>
+  </si>
+  <si>
+    <t>14-04-1979</t>
+  </si>
+  <si>
+    <t>15-04-1979</t>
+  </si>
+  <si>
+    <t>16-04-1979</t>
+  </si>
+  <si>
+    <t>17-04-1979</t>
+  </si>
+  <si>
+    <t>18-04-1979</t>
+  </si>
+  <si>
+    <t>19-04-1979</t>
+  </si>
+  <si>
+    <t>20-04-1979</t>
+  </si>
+  <si>
+    <t>21-04-1979</t>
+  </si>
+  <si>
+    <t>22-04-1979</t>
+  </si>
+  <si>
+    <t>23-04-1979</t>
+  </si>
+  <si>
+    <t>24-04-1979</t>
+  </si>
+  <si>
+    <t>25-04-1979</t>
+  </si>
+  <si>
+    <t>26-04-1979</t>
+  </si>
+  <si>
+    <t>27-04-1979</t>
+  </si>
+  <si>
+    <t>28-04-1979</t>
+  </si>
+  <si>
+    <t>29-04-1979</t>
+  </si>
+  <si>
+    <t>30-04-1979</t>
+  </si>
+  <si>
+    <t>01-05-1979</t>
+  </si>
+  <si>
+    <t>02-05-1979</t>
+  </si>
+  <si>
+    <t>03-05-1979</t>
+  </si>
+  <si>
+    <t>04-05-1979</t>
+  </si>
+  <si>
+    <t>05-05-1979</t>
+  </si>
+  <si>
+    <t>06-05-1979</t>
+  </si>
+  <si>
+    <t>07-05-1979</t>
+  </si>
+  <si>
+    <t>08-05-1979</t>
+  </si>
+  <si>
+    <t>09-05-1979</t>
+  </si>
+  <si>
+    <t>10-05-1979</t>
+  </si>
+  <si>
+    <t>11-05-1979</t>
+  </si>
+  <si>
+    <t>12-05-1979</t>
+  </si>
+  <si>
+    <t>13-05-1979</t>
+  </si>
+  <si>
+    <t>14-05-1979</t>
+  </si>
+  <si>
+    <t>15-05-1979</t>
+  </si>
+  <si>
+    <t>16-05-1979</t>
+  </si>
+  <si>
+    <t>17-05-1979</t>
+  </si>
+  <si>
+    <t>18-05-1979</t>
+  </si>
+  <si>
+    <t>19-05-1979</t>
+  </si>
+  <si>
+    <t>20-05-1979</t>
+  </si>
+  <si>
+    <t>21-05-1979</t>
+  </si>
+  <si>
+    <t>22-05-1979</t>
+  </si>
+  <si>
+    <t>23-05-1979</t>
+  </si>
+  <si>
+    <t>24-05-1979</t>
+  </si>
+  <si>
+    <t>25-05-1979</t>
+  </si>
+  <si>
+    <t>26-05-1979</t>
+  </si>
+  <si>
+    <t>27-05-1979</t>
+  </si>
+  <si>
+    <t>28-05-1979</t>
+  </si>
+  <si>
+    <t>29-05-1979</t>
+  </si>
+  <si>
+    <t>30-05-1979</t>
+  </si>
+  <si>
+    <t>31-05-1979</t>
+  </si>
+  <si>
+    <t>01-06-1979</t>
+  </si>
+  <si>
+    <t>02-06-1979</t>
+  </si>
+  <si>
+    <t>03-06-1979</t>
+  </si>
+  <si>
+    <t>04-06-1979</t>
+  </si>
+  <si>
+    <t>05-06-1979</t>
+  </si>
+  <si>
+    <t>06-06-1979</t>
+  </si>
+  <si>
+    <t>07-06-1979</t>
+  </si>
+  <si>
+    <t>08-06-1979</t>
+  </si>
+  <si>
+    <t>09-06-1979</t>
+  </si>
+  <si>
+    <t>10-06-1979</t>
+  </si>
+  <si>
+    <t>11-06-1979</t>
+  </si>
+  <si>
+    <t>12-06-1979</t>
+  </si>
+  <si>
+    <t>13-06-1979</t>
+  </si>
+  <si>
+    <t>14-06-1979</t>
+  </si>
+  <si>
+    <t>15-06-1979</t>
+  </si>
+  <si>
+    <t>16-06-1979</t>
+  </si>
+  <si>
+    <t>17-06-1979</t>
+  </si>
+  <si>
+    <t>18-06-1979</t>
+  </si>
+  <si>
+    <t>19-06-1979</t>
+  </si>
+  <si>
+    <t>20-06-1979</t>
+  </si>
+  <si>
+    <t>21-06-1979</t>
+  </si>
+  <si>
+    <t>22-06-1979</t>
+  </si>
+  <si>
+    <t>23-06-1979</t>
+  </si>
+  <si>
+    <t>24-06-1979</t>
+  </si>
+  <si>
+    <t>25-06-1979</t>
+  </si>
+  <si>
+    <t>26-06-1979</t>
+  </si>
+  <si>
+    <t>27-06-1979</t>
+  </si>
+  <si>
+    <t>28-06-1979</t>
+  </si>
+  <si>
+    <t>29-06-1979</t>
+  </si>
+  <si>
+    <t>30-06-1979</t>
+  </si>
+  <si>
+    <t>01-07-1979</t>
+  </si>
+  <si>
+    <t>02-07-1979</t>
+  </si>
+  <si>
+    <t>03-07-1979</t>
+  </si>
+  <si>
+    <t>04-07-1979</t>
+  </si>
+  <si>
+    <t>05-07-1979</t>
+  </si>
+  <si>
+    <t>06-07-1979</t>
+  </si>
+  <si>
+    <t>07-07-1979</t>
+  </si>
+  <si>
+    <t>08-07-1979</t>
+  </si>
+  <si>
+    <t>09-07-1979</t>
+  </si>
+  <si>
+    <t>10-07-1979</t>
+  </si>
+  <si>
+    <t>11-07-1979</t>
+  </si>
+  <si>
+    <t>12-07-1979</t>
+  </si>
+  <si>
+    <t>13-07-1979</t>
+  </si>
+  <si>
+    <t>14-07-1979</t>
+  </si>
+  <si>
+    <t>15-07-1979</t>
+  </si>
+  <si>
+    <t>16-07-1979</t>
+  </si>
+  <si>
+    <t>17-07-1979</t>
+  </si>
+  <si>
+    <t>18-07-1979</t>
+  </si>
+  <si>
+    <t>19-07-1979</t>
+  </si>
+  <si>
+    <t>20-07-1979</t>
+  </si>
+  <si>
+    <t>21-07-1979</t>
+  </si>
+  <si>
+    <t>22-07-1979</t>
+  </si>
+  <si>
+    <t>23-07-1979</t>
+  </si>
+  <si>
+    <t>24-07-1979</t>
+  </si>
+  <si>
+    <t>25-07-1979</t>
+  </si>
+  <si>
+    <t>26-07-1979</t>
+  </si>
+  <si>
+    <t>27-07-1979</t>
+  </si>
+  <si>
+    <t>28-07-1979</t>
+  </si>
+  <si>
+    <t>29-07-1979</t>
+  </si>
+  <si>
+    <t>30-07-1979</t>
+  </si>
+  <si>
+    <t>31-07-1979</t>
+  </si>
+  <si>
+    <t>01-08-1979</t>
+  </si>
+  <si>
+    <t>02-08-1979</t>
+  </si>
+  <si>
+    <t>03-08-1979</t>
+  </si>
+  <si>
+    <t>04-08-1979</t>
+  </si>
+  <si>
+    <t>05-08-1979</t>
+  </si>
+  <si>
+    <t>06-08-1979</t>
+  </si>
+  <si>
+    <t>07-08-1979</t>
+  </si>
+  <si>
+    <t>08-08-1979</t>
+  </si>
+  <si>
+    <t>09-08-1979</t>
+  </si>
+  <si>
+    <t>10-08-1979</t>
+  </si>
+  <si>
+    <t>11-08-1979</t>
+  </si>
+  <si>
+    <t>12-08-1979</t>
+  </si>
+  <si>
+    <t>13-08-1979</t>
+  </si>
+  <si>
+    <t>14-08-1979</t>
+  </si>
+  <si>
+    <t>15-08-1979</t>
+  </si>
+  <si>
+    <t>16-08-1979</t>
+  </si>
+  <si>
+    <t>17-08-1979</t>
+  </si>
+  <si>
+    <t>18-08-1979</t>
+  </si>
+  <si>
+    <t>19-08-1979</t>
+  </si>
+  <si>
+    <t>20-08-1979</t>
+  </si>
+  <si>
+    <t>21-08-1979</t>
+  </si>
+  <si>
+    <t>22-08-1979</t>
+  </si>
+  <si>
+    <t>23-08-1979</t>
+  </si>
+  <si>
+    <t>24-08-1979</t>
+  </si>
+  <si>
+    <t>25-08-1979</t>
+  </si>
+  <si>
+    <t>26-08-1979</t>
+  </si>
+  <si>
+    <t>27-08-1979</t>
+  </si>
+  <si>
+    <t>28-08-1979</t>
+  </si>
+  <si>
+    <t>29-08-1979</t>
+  </si>
+  <si>
+    <t>30-08-1979</t>
+  </si>
+  <si>
+    <t>31-08-1979</t>
+  </si>
+  <si>
+    <t>01-09-1979</t>
+  </si>
+  <si>
+    <t>02-09-1979</t>
+  </si>
+  <si>
+    <t>03-09-1979</t>
+  </si>
+  <si>
+    <t>04-09-1979</t>
+  </si>
+  <si>
+    <t>05-09-1979</t>
+  </si>
+  <si>
+    <t>06-09-1979</t>
+  </si>
+  <si>
+    <t>07-09-1979</t>
+  </si>
+  <si>
+    <t>08-09-1979</t>
+  </si>
+  <si>
+    <t>09-09-1979</t>
+  </si>
+  <si>
+    <t>10-09-1979</t>
+  </si>
+  <si>
+    <t>11-09-1979</t>
+  </si>
+  <si>
+    <t>12-09-1979</t>
+  </si>
+  <si>
+    <t>13-09-1979</t>
+  </si>
+  <si>
+    <t>14-09-1979</t>
+  </si>
+  <si>
+    <t>15-09-1979</t>
+  </si>
+  <si>
+    <t>16-09-1979</t>
+  </si>
+  <si>
+    <t>17-09-1979</t>
+  </si>
+  <si>
+    <t>18-09-1979</t>
+  </si>
+  <si>
+    <t>19-09-1979</t>
+  </si>
+  <si>
+    <t>20-09-1979</t>
+  </si>
+  <si>
+    <t>21-09-1979</t>
+  </si>
+  <si>
+    <t>22-09-1979</t>
+  </si>
+  <si>
+    <t>23-09-1979</t>
+  </si>
+  <si>
+    <t>24-09-1979</t>
+  </si>
+  <si>
+    <t>25-09-1979</t>
+  </si>
+  <si>
+    <t>26-09-1979</t>
+  </si>
+  <si>
+    <t>27-09-1979</t>
+  </si>
+  <si>
+    <t>28-09-1979</t>
+  </si>
+  <si>
+    <t>29-09-1979</t>
+  </si>
+  <si>
+    <t>30-09-1979</t>
+  </si>
+  <si>
+    <t>01-10-1979</t>
+  </si>
+  <si>
+    <t>02-10-1979</t>
+  </si>
+  <si>
+    <t>03-10-1979</t>
+  </si>
+  <si>
+    <t>04-10-1979</t>
+  </si>
+  <si>
+    <t>05-10-1979</t>
+  </si>
+  <si>
+    <t>06-10-1979</t>
+  </si>
+  <si>
+    <t>07-10-1979</t>
+  </si>
+  <si>
+    <t>08-10-1979</t>
+  </si>
+  <si>
+    <t>09-10-1979</t>
+  </si>
+  <si>
+    <t>10-10-1979</t>
+  </si>
+  <si>
+    <t>11-10-1979</t>
+  </si>
+  <si>
+    <t>12-10-1979</t>
+  </si>
+  <si>
+    <t>13-10-1979</t>
+  </si>
+  <si>
+    <t>14-10-1979</t>
+  </si>
+  <si>
+    <t>15-10-1979</t>
+  </si>
+  <si>
+    <t>16-10-1979</t>
+  </si>
+  <si>
+    <t>17-10-1979</t>
+  </si>
+  <si>
+    <t>18-10-1979</t>
+  </si>
+  <si>
+    <t>19-10-1979</t>
+  </si>
+  <si>
+    <t>20-10-1979</t>
+  </si>
+  <si>
+    <t>21-10-1979</t>
+  </si>
+  <si>
+    <t>22-10-1979</t>
+  </si>
+  <si>
+    <t>23-10-1979</t>
+  </si>
+  <si>
+    <t>24-10-1979</t>
+  </si>
+  <si>
+    <t>25-10-1979</t>
+  </si>
+  <si>
+    <t>26-10-1979</t>
+  </si>
+  <si>
+    <t>27-10-1979</t>
+  </si>
+  <si>
+    <t>28-10-1979</t>
+  </si>
+  <si>
+    <t>29-10-1979</t>
+  </si>
+  <si>
+    <t>30-10-1979</t>
+  </si>
+  <si>
+    <t>31-10-1979</t>
+  </si>
+  <si>
+    <t>01-11-1979</t>
+  </si>
+  <si>
+    <t>02-11-1979</t>
+  </si>
+  <si>
+    <t>03-11-1979</t>
+  </si>
+  <si>
+    <t>04-11-1979</t>
+  </si>
+  <si>
+    <t>05-11-1979</t>
+  </si>
+  <si>
+    <t>06-11-1979</t>
+  </si>
+  <si>
+    <t>07-11-1979</t>
+  </si>
+  <si>
+    <t>08-11-1979</t>
+  </si>
+  <si>
+    <t>09-11-1979</t>
+  </si>
+  <si>
+    <t>10-11-1979</t>
+  </si>
+  <si>
+    <t>11-11-1979</t>
+  </si>
+  <si>
+    <t>12-11-1979</t>
+  </si>
+  <si>
+    <t>13-11-1979</t>
+  </si>
+  <si>
+    <t>14-11-1979</t>
+  </si>
+  <si>
+    <t>15-11-1979</t>
+  </si>
+  <si>
+    <t>16-11-1979</t>
+  </si>
+  <si>
+    <t>17-11-1979</t>
+  </si>
+  <si>
+    <t>18-11-1979</t>
+  </si>
+  <si>
+    <t>19-11-1979</t>
+  </si>
+  <si>
+    <t>20-11-1979</t>
+  </si>
+  <si>
+    <t>21-11-1979</t>
+  </si>
+  <si>
+    <t>22-11-1979</t>
+  </si>
+  <si>
+    <t>23-11-1979</t>
+  </si>
+  <si>
+    <t>24-11-1979</t>
+  </si>
+  <si>
+    <t>25-11-1979</t>
+  </si>
+  <si>
+    <t>26-11-1979</t>
+  </si>
+  <si>
+    <t>27-11-1979</t>
+  </si>
+  <si>
+    <t>28-11-1979</t>
+  </si>
+  <si>
+    <t>29-11-1979</t>
+  </si>
+  <si>
+    <t>30-11-1979</t>
+  </si>
+  <si>
+    <t>01-12-1979</t>
+  </si>
+  <si>
+    <t>02-12-1979</t>
+  </si>
+  <si>
+    <t>03-12-1979</t>
+  </si>
+  <si>
+    <t>04-12-1979</t>
+  </si>
+  <si>
+    <t>05-12-1979</t>
+  </si>
+  <si>
+    <t>06-12-1979</t>
+  </si>
+  <si>
+    <t>07-12-1979</t>
+  </si>
+  <si>
+    <t>08-12-1979</t>
+  </si>
+  <si>
+    <t>09-12-1979</t>
+  </si>
+  <si>
+    <t>10-12-1979</t>
+  </si>
+  <si>
+    <t>11-12-1979</t>
+  </si>
+  <si>
+    <t>12-12-1979</t>
+  </si>
+  <si>
+    <t>13-12-1979</t>
+  </si>
+  <si>
+    <t>14-12-1979</t>
+  </si>
+  <si>
+    <t>15-12-1979</t>
+  </si>
+  <si>
+    <t>16-12-1979</t>
+  </si>
+  <si>
+    <t>17-12-1979</t>
+  </si>
+  <si>
+    <t>18-12-1979</t>
+  </si>
+  <si>
+    <t>19-12-1979</t>
+  </si>
+  <si>
+    <t>20-12-1979</t>
+  </si>
+  <si>
+    <t>21-12-1979</t>
+  </si>
+  <si>
+    <t>22-12-1979</t>
+  </si>
+  <si>
+    <t>23-12-1979</t>
+  </si>
+  <si>
+    <t>24-12-1979</t>
+  </si>
+  <si>
+    <t>25-12-1979</t>
+  </si>
+  <si>
+    <t>26-12-1979</t>
+  </si>
+  <si>
+    <t>27-12-1979</t>
+  </si>
+  <si>
+    <t>28-12-1979</t>
+  </si>
+  <si>
+    <t>29-12-1979</t>
+  </si>
+  <si>
+    <t>30-12-1979</t>
+  </si>
+  <si>
+    <t>31-12-1979</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C367"/>
+  <dimension ref="A1:C366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>842.7</v>
+        <v>613.62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1508,7 +1505,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>843.27</v>
+        <v>613.88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1516,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>843.83</v>
+        <v>614.13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1524,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>844.4</v>
+        <v>614.39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1532,7 +1529,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>844.97</v>
+        <v>614.65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1540,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>845.53</v>
+        <v>614.9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1548,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>846.1</v>
+        <v>615.16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1556,7 +1553,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>846.67</v>
+        <v>615.41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1564,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>847.24</v>
+        <v>615.67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1572,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>847.83</v>
+        <v>615.97</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1580,7 +1577,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>848.4299999999999</v>
+        <v>616.26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1588,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>849.03</v>
+        <v>616.5599999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1596,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>849.62</v>
+        <v>616.85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1604,7 +1601,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>850.22</v>
+        <v>617.15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1612,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>850.8200000000001</v>
+        <v>617.45</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1620,7 +1617,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>851.41</v>
+        <v>617.74</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1628,7 +1625,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>852.01</v>
+        <v>618.04</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1636,7 +1633,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>852.61</v>
+        <v>618.34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1644,7 +1641,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>853.21</v>
+        <v>618.63</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1652,7 +1649,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>853.8099999999999</v>
+        <v>618.9299999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1660,7 +1657,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>854.41</v>
+        <v>619.23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1668,7 +1665,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>855.01</v>
+        <v>619.53</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1676,7 +1673,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>855.61</v>
+        <v>619.8200000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1684,7 +1681,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>856.21</v>
+        <v>620.12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1692,7 +1689,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>856.8099999999999</v>
+        <v>620.42</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1700,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>857.41</v>
+        <v>620.72</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1708,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>858.01</v>
+        <v>621.02</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1716,7 +1713,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>858.62</v>
+        <v>621.3099999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1724,7 +1721,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>859.22</v>
+        <v>621.61</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1732,7 +1729,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>859.8200000000001</v>
+        <v>621.91</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1740,7 +1737,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>860.4299999999999</v>
+        <v>622.21</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1748,7 +1745,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>861.03</v>
+        <v>622.51</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1756,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>861.63</v>
+        <v>622.8099999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1764,7 +1761,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>862.24</v>
+        <v>623.11</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1772,7 +1769,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>862.85</v>
+        <v>623.41</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1780,7 +1777,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>863.45</v>
+        <v>623.71</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1788,7 +1785,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>864.0599999999999</v>
+        <v>624.01</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1796,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>864.66</v>
+        <v>624.3099999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1804,7 +1801,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>865.27</v>
+        <v>624.6</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1812,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>865.88</v>
+        <v>624.91</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1820,7 +1817,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>866.5</v>
+        <v>625.4</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1828,7 +1825,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>867.12</v>
+        <v>625.88</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1836,7 +1833,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>867.74</v>
+        <v>626.37</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1844,7 +1841,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>868.37</v>
+        <v>626.86</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1852,7 +1849,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>868.99</v>
+        <v>627.34</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1860,7 +1857,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>869.61</v>
+        <v>627.83</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1868,7 +1865,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>870.23</v>
+        <v>628.3200000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1876,7 +1873,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>870.86</v>
+        <v>628.8099999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1884,7 +1881,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>871.48</v>
+        <v>629.3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1892,7 +1889,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>872.11</v>
+        <v>629.79</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1900,7 +1897,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>872.73</v>
+        <v>630.28</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1908,7 +1905,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>873.36</v>
+        <v>630.77</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1916,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>873.98</v>
+        <v>631.26</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1924,7 +1921,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>874.61</v>
+        <v>631.75</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1932,7 +1929,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>875.24</v>
+        <v>632.24</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1940,7 +1937,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>875.87</v>
+        <v>632.73</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1948,7 +1945,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>876.49</v>
+        <v>633.22</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1956,7 +1953,7 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>877.12</v>
+        <v>633.71</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1964,7 +1961,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>877.75</v>
+        <v>634.21</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1972,7 +1969,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>878.38</v>
+        <v>634.7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1980,7 +1977,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>879.01</v>
+        <v>635.1900000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1988,7 +1985,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>879.64</v>
+        <v>635.6900000000001</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1996,7 +1993,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>880.27</v>
+        <v>636.1799999999999</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2004,7 +2001,7 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>880.9</v>
+        <v>636.6799999999999</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2012,7 +2009,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>881.53</v>
+        <v>637.17</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2020,7 +2017,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>882.16</v>
+        <v>637.67</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2028,7 +2025,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>882.8</v>
+        <v>638.16</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2036,7 +2033,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>883.4299999999999</v>
+        <v>638.66</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2044,7 +2041,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>884.0599999999999</v>
+        <v>638.99</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2052,7 +2049,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>884.5700000000001</v>
+        <v>639.11</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2060,7 +2057,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>885.08</v>
+        <v>639.64</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2068,7 +2065,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>885.59</v>
+        <v>639.97</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2076,7 +2073,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>886.1</v>
+        <v>640.3</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2084,7 +2081,7 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>886.61</v>
+        <v>640.63</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2092,7 +2089,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>887.12</v>
+        <v>640.95</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2100,7 +2097,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>887.63</v>
+        <v>641.28</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2108,7 +2105,7 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>888.14</v>
+        <v>641.61</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2116,7 +2113,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>888.65</v>
+        <v>641.9400000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2124,7 +2121,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>889.16</v>
+        <v>642.27</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2132,7 +2129,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>889.67</v>
+        <v>642.6</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2140,7 +2137,7 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>890.1900000000001</v>
+        <v>642.9299999999999</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2148,7 +2145,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>890.7</v>
+        <v>643.25</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2156,7 +2153,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>891.21</v>
+        <v>643.58</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2164,7 +2161,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>891.72</v>
+        <v>643.91</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2172,7 +2169,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>892.24</v>
+        <v>644.24</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2180,7 +2177,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>892.75</v>
+        <v>644.5700000000001</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2188,7 +2185,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>893.27</v>
+        <v>644.9</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2196,7 +2193,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>893.78</v>
+        <v>645.23</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2204,7 +2201,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>894.29</v>
+        <v>645.5599999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2212,7 +2209,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>894.8099999999999</v>
+        <v>645.9</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2220,7 +2217,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>895.3200000000001</v>
+        <v>646.23</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2228,7 +2225,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>895.84</v>
+        <v>646.5599999999999</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2236,7 +2233,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>896.35</v>
+        <v>646.89</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2244,7 +2241,7 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>896.87</v>
+        <v>647.22</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2252,7 +2249,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>897.39</v>
+        <v>647.55</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2260,7 +2257,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>897.9</v>
+        <v>647.88</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2268,7 +2265,7 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>898.42</v>
+        <v>648.21</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2276,7 +2273,7 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>898.9400000000001</v>
+        <v>648.55</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2284,7 +2281,7 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>899.46</v>
+        <v>648.88</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2292,7 +2289,7 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>899.97</v>
+        <v>649.48</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2300,7 +2297,7 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>900.83</v>
+        <v>650.08</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2308,7 +2305,7 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>901.6900000000001</v>
+        <v>650.67</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2316,7 +2313,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>902.55</v>
+        <v>651.27</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2324,7 +2321,7 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>903.41</v>
+        <v>651.87</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2332,7 +2329,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>904.27</v>
+        <v>652.47</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2340,7 +2337,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>905.13</v>
+        <v>653.0700000000001</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2348,7 +2345,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>905.99</v>
+        <v>653.6799999999999</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2356,7 +2353,7 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>906.86</v>
+        <v>654.28</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2364,7 +2361,7 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>907.72</v>
+        <v>654.88</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2372,7 +2369,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>908.59</v>
+        <v>655.48</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2380,7 +2377,7 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>909.45</v>
+        <v>656.09</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2388,7 +2385,7 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>910.3200000000001</v>
+        <v>656.6900000000001</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2396,7 +2393,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>911.1900000000001</v>
+        <v>657.3</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2404,7 +2401,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>912.0599999999999</v>
+        <v>657.9</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2412,7 +2409,7 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>912.9299999999999</v>
+        <v>658.51</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2420,7 +2417,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>913.8</v>
+        <v>659.11</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2428,7 +2425,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>914.67</v>
+        <v>659.72</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2436,7 +2433,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>915.54</v>
+        <v>660.33</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2444,7 +2441,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>916.41</v>
+        <v>660.9400000000001</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2452,7 +2449,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>917.29</v>
+        <v>661.55</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2460,7 +2457,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>918.16</v>
+        <v>662.15</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2468,7 +2465,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>919.04</v>
+        <v>662.76</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2476,7 +2473,7 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>919.91</v>
+        <v>663.37</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2484,7 +2481,7 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>920.79</v>
+        <v>663.99</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2492,7 +2489,7 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>921.67</v>
+        <v>664.6</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2500,7 +2497,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>922.55</v>
+        <v>665.21</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2508,7 +2505,7 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>923.4299999999999</v>
+        <v>665.8200000000001</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2516,7 +2513,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>924.3099999999999</v>
+        <v>666.4299999999999</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2524,7 +2521,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>925.1900000000001</v>
+        <v>667.05</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2532,7 +2529,7 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>926.0700000000001</v>
+        <v>667.6</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2540,7 +2537,7 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>926.8099999999999</v>
+        <v>668.16</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2548,7 +2545,7 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>927.55</v>
+        <v>668.71</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2556,7 +2553,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>928.29</v>
+        <v>669.26</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2564,7 +2561,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>929.03</v>
+        <v>669.8200000000001</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2572,7 +2569,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>929.77</v>
+        <v>670.37</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2580,7 +2577,7 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>930.51</v>
+        <v>670.9299999999999</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2588,7 +2585,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>931.25</v>
+        <v>671.48</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2596,7 +2593,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>931.99</v>
+        <v>672.04</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2604,7 +2601,7 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>932.73</v>
+        <v>672.6</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2612,7 +2609,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>933.48</v>
+        <v>673.15</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2620,7 +2617,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>934.22</v>
+        <v>673.71</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2628,7 +2625,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>934.96</v>
+        <v>674.27</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2636,7 +2633,7 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>935.71</v>
+        <v>674.83</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2644,7 +2641,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>936.45</v>
+        <v>675.39</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2652,7 +2649,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>937.2</v>
+        <v>675.95</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2660,7 +2657,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>937.95</v>
+        <v>676.51</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2668,7 +2665,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>938.7</v>
+        <v>677.0700000000001</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2676,7 +2673,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>939.4400000000001</v>
+        <v>677.63</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2684,7 +2681,7 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>940.1900000000001</v>
+        <v>678.1900000000001</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2692,7 +2689,7 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>940.9400000000001</v>
+        <v>678.75</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2700,7 +2697,7 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>941.6900000000001</v>
+        <v>679.3099999999999</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2708,7 +2705,7 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>942.4400000000001</v>
+        <v>679.87</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2716,7 +2713,7 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>943.1900000000001</v>
+        <v>680.4400000000001</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2724,7 +2721,7 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>943.9400000000001</v>
+        <v>681</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2732,7 +2729,7 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>944.7</v>
+        <v>681.5700000000001</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2740,7 +2737,7 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>945.45</v>
+        <v>682.13</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2748,7 +2745,7 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>946.2</v>
+        <v>682.7</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2756,7 +2753,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>946.96</v>
+        <v>683.26</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2764,7 +2761,7 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>947.71</v>
+        <v>683.83</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2772,7 +2769,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>948.47</v>
+        <v>684.39</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2780,7 +2777,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>949.22</v>
+        <v>684.95</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2788,7 +2785,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>949.9400000000001</v>
+        <v>685.52</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2796,7 +2793,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>950.66</v>
+        <v>686.08</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2804,7 +2801,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>951.38</v>
+        <v>686.65</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2812,7 +2809,7 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>952.1</v>
+        <v>687.21</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2820,7 +2817,7 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>952.8200000000001</v>
+        <v>687.78</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2828,7 +2825,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>953.55</v>
+        <v>688.34</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2836,7 +2833,7 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>954.27</v>
+        <v>688.91</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2844,7 +2841,7 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>954.99</v>
+        <v>689.48</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2852,7 +2849,7 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>955.72</v>
+        <v>690.05</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2860,7 +2857,7 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>956.4400000000001</v>
+        <v>690.61</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2868,7 +2865,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>957.17</v>
+        <v>691.1799999999999</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2876,7 +2873,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>957.89</v>
+        <v>691.75</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2884,7 +2881,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>958.62</v>
+        <v>692.3200000000001</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2892,7 +2889,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>959.35</v>
+        <v>692.89</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2900,7 +2897,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>960.0700000000001</v>
+        <v>693.46</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2908,7 +2905,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>960.8</v>
+        <v>694.03</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2916,7 +2913,7 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>961.53</v>
+        <v>694.61</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2924,7 +2921,7 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>962.26</v>
+        <v>695.1799999999999</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2932,7 +2929,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>962.99</v>
+        <v>695.75</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2940,7 +2937,7 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>963.72</v>
+        <v>696.3200000000001</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2948,7 +2945,7 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>964.45</v>
+        <v>696.9</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2956,7 +2953,7 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>965.1799999999999</v>
+        <v>697.47</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2964,7 +2961,7 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>965.91</v>
+        <v>698.04</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2972,7 +2969,7 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>966.65</v>
+        <v>698.62</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2980,7 +2977,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>967.38</v>
+        <v>699.1900000000001</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2988,7 +2985,7 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>968.11</v>
+        <v>699.77</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2996,7 +2993,7 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>968.85</v>
+        <v>700.35</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3004,7 +3001,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>969.58</v>
+        <v>700.92</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3012,7 +3009,7 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>970.3200000000001</v>
+        <v>701.5</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3020,7 +3017,7 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>971.05</v>
+        <v>702.0599999999999</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3028,7 +3025,7 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>971.64</v>
+        <v>702.62</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3036,7 +3033,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>972.23</v>
+        <v>703.1799999999999</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3044,7 +3041,7 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>972.8200000000001</v>
+        <v>703.74</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3052,7 +3049,7 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>973.41</v>
+        <v>704.3</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3060,7 +3057,7 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>974</v>
+        <v>704.86</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3068,7 +3065,7 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>974.59</v>
+        <v>705.42</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3076,7 +3073,7 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>975.1900000000001</v>
+        <v>705.98</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3084,7 +3081,7 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>975.78</v>
+        <v>706.55</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3092,7 +3089,7 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>976.37</v>
+        <v>707.11</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3100,7 +3097,7 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>976.96</v>
+        <v>707.67</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3108,7 +3105,7 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>977.5599999999999</v>
+        <v>708.24</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3116,7 +3113,7 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>978.15</v>
+        <v>708.8</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3124,7 +3121,7 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>978.74</v>
+        <v>709.37</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3132,7 +3129,7 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>979.34</v>
+        <v>709.9299999999999</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3140,7 +3137,7 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>979.9299999999999</v>
+        <v>710.5</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3148,7 +3145,7 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>980.53</v>
+        <v>711.0599999999999</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3156,7 +3153,7 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>981.12</v>
+        <v>711.63</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3164,7 +3161,7 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>981.72</v>
+        <v>712.2</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3172,7 +3169,7 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>982.3200000000001</v>
+        <v>712.76</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3180,7 +3177,7 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>982.91</v>
+        <v>713.33</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3188,7 +3185,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>983.51</v>
+        <v>713.9</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3196,7 +3193,7 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>984.11</v>
+        <v>714.47</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3204,7 +3201,7 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>984.71</v>
+        <v>715.04</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3212,7 +3209,7 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>985.3</v>
+        <v>715.61</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3220,7 +3217,7 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>985.9</v>
+        <v>716.1799999999999</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3228,7 +3225,7 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>986.5</v>
+        <v>716.75</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3236,7 +3233,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>987.1</v>
+        <v>717.3200000000001</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3244,7 +3241,7 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>987.7</v>
+        <v>717.89</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3252,7 +3249,7 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>988.3</v>
+        <v>718.46</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3260,7 +3257,7 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>988.9</v>
+        <v>719.04</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3268,7 +3265,7 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>989.5</v>
+        <v>719.86</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3276,7 +3273,7 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>990.13</v>
+        <v>720.6799999999999</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3284,7 +3281,7 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>990.76</v>
+        <v>721.51</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3292,7 +3289,7 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>991.4</v>
+        <v>722.33</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3300,7 +3297,7 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>992.03</v>
+        <v>723.15</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3308,7 +3305,7 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>992.67</v>
+        <v>723.98</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3316,7 +3313,7 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>993.3</v>
+        <v>724.8099999999999</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3324,7 +3321,7 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>993.9299999999999</v>
+        <v>725.63</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3332,7 +3329,7 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>994.5700000000001</v>
+        <v>726.46</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3340,7 +3337,7 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>995.21</v>
+        <v>727.29</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3348,7 +3345,7 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>995.84</v>
+        <v>728.12</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3356,7 +3353,7 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>996.48</v>
+        <v>728.95</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3364,7 +3361,7 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>997.11</v>
+        <v>729.78</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3372,7 +3369,7 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>997.75</v>
+        <v>730.62</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3380,7 +3377,7 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>998.39</v>
+        <v>731.45</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3388,7 +3385,7 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>999.03</v>
+        <v>732.29</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3396,7 +3393,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>999.67</v>
+        <v>733.12</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3404,7 +3401,7 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>1000.3</v>
+        <v>733.96</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3412,7 +3409,7 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>1000.94</v>
+        <v>734.8</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3420,7 +3417,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>1001.58</v>
+        <v>735.64</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3428,7 +3425,7 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>1002.22</v>
+        <v>736.48</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3436,7 +3433,7 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>1002.86</v>
+        <v>737.3200000000001</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3444,7 +3441,7 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>1003.5</v>
+        <v>738.16</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3452,7 +3449,7 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>1004.15</v>
+        <v>739</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3460,7 +3457,7 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>1004.79</v>
+        <v>739.84</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3468,7 +3465,7 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>1005.43</v>
+        <v>740.6900000000001</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3476,7 +3473,7 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>1006.07</v>
+        <v>741.53</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3484,7 +3481,7 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>1006.71</v>
+        <v>742.38</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3492,7 +3489,7 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>1007.36</v>
+        <v>743.23</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3500,7 +3497,7 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>1008</v>
+        <v>744.08</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3508,7 +3505,7 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>1008.65</v>
+        <v>744.9299999999999</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3516,7 +3513,7 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>1009.29</v>
+        <v>746.0700000000001</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3524,7 +3521,7 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>1010.02</v>
+        <v>747.21</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3532,7 +3529,7 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>1010.76</v>
+        <v>748.36</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3540,7 +3537,7 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>1011.49</v>
+        <v>749.51</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3548,7 +3545,7 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>1012.22</v>
+        <v>750.65</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3556,7 +3553,7 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>1012.96</v>
+        <v>751.8</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3564,7 +3561,7 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>1013.69</v>
+        <v>752.96</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3572,7 +3569,7 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>1014.43</v>
+        <v>754.11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3580,7 +3577,7 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>1015.16</v>
+        <v>755.27</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3588,7 +3585,7 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>1015.9</v>
+        <v>756.42</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3596,7 +3593,7 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>1016.64</v>
+        <v>757.58</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3604,7 +3601,7 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>1017.38</v>
+        <v>758.74</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3612,7 +3609,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>1018.11</v>
+        <v>759.9</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3620,7 +3617,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>1018.85</v>
+        <v>761.0700000000001</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3628,7 +3625,7 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>1019.59</v>
+        <v>762.23</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3636,7 +3633,7 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>1020.33</v>
+        <v>763.4</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3644,7 +3641,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>1021.07</v>
+        <v>764.5700000000001</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3652,7 +3649,7 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>1021.81</v>
+        <v>765.74</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3660,7 +3657,7 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>1022.55</v>
+        <v>766.92</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3668,7 +3665,7 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>1023.3</v>
+        <v>768.09</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3676,7 +3673,7 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>1024.04</v>
+        <v>769.27</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3684,7 +3681,7 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>1024.78</v>
+        <v>770.45</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3692,7 +3689,7 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>1025.53</v>
+        <v>771.63</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3700,7 +3697,7 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>1026.27</v>
+        <v>772.8099999999999</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3708,7 +3705,7 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>1027.01</v>
+        <v>773.99</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3716,7 +3713,7 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>1027.76</v>
+        <v>775.1799999999999</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3724,7 +3721,7 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>1028.51</v>
+        <v>776.37</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3732,7 +3729,7 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>1029.25</v>
+        <v>777.5599999999999</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3740,7 +3737,7 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>1030</v>
+        <v>778.75</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3748,7 +3745,7 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>1030.75</v>
+        <v>779.9400000000001</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3756,7 +3753,7 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>1031.49</v>
+        <v>780.9</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3764,7 +3761,7 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>1032.18</v>
+        <v>781.87</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3772,7 +3769,7 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>1032.87</v>
+        <v>782.83</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3780,7 +3777,7 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>1033.57</v>
+        <v>783.8</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3788,7 +3785,7 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>1034.26</v>
+        <v>784.77</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3796,7 +3793,7 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>1034.95</v>
+        <v>785.74</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3804,7 +3801,7 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>1035.65</v>
+        <v>786.71</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3812,7 +3809,7 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>1036.34</v>
+        <v>787.6799999999999</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3820,7 +3817,7 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>1037.04</v>
+        <v>788.65</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3828,7 +3825,7 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>1037.73</v>
+        <v>789.63</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3836,7 +3833,7 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>1038.43</v>
+        <v>790.6</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3844,7 +3841,7 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>1039.12</v>
+        <v>791.58</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3852,7 +3849,7 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>1039.82</v>
+        <v>792.55</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3860,7 +3857,7 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>1040.52</v>
+        <v>793.53</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3868,7 +3865,7 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>1041.22</v>
+        <v>794.51</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3876,7 +3873,7 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>1041.92</v>
+        <v>795.49</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3884,7 +3881,7 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>1042.61</v>
+        <v>796.48</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3892,7 +3889,7 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>1043.31</v>
+        <v>797.46</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3900,7 +3897,7 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>1044.01</v>
+        <v>798.4400000000001</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3908,7 +3905,7 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>1044.71</v>
+        <v>799.4299999999999</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3916,7 +3913,7 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>1045.41</v>
+        <v>800.42</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3924,7 +3921,7 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>1046.11</v>
+        <v>801.41</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3932,7 +3929,7 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>1046.82</v>
+        <v>802.4</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3940,7 +3937,7 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>1047.52</v>
+        <v>803.39</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3948,7 +3945,7 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>1048.22</v>
+        <v>804.38</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3956,7 +3953,7 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>1048.92</v>
+        <v>805.37</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3964,7 +3961,7 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>1049.63</v>
+        <v>806.37</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3972,7 +3969,7 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>1050.33</v>
+        <v>807.36</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3980,7 +3977,7 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>1051.04</v>
+        <v>808.36</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3988,7 +3985,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>1051.74</v>
+        <v>809.36</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3996,7 +3993,7 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>1052.45</v>
+        <v>810.36</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4004,7 +4001,7 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>1053.15</v>
+        <v>811</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4012,7 +4009,7 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>1054.15</v>
+        <v>811.64</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4020,7 +4017,7 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>1055.16</v>
+        <v>812.28</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4028,7 +4025,7 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>1056.16</v>
+        <v>812.9299999999999</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4036,7 +4033,7 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>1057.17</v>
+        <v>813.5700000000001</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4044,7 +4041,7 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>1058.18</v>
+        <v>814.21</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4052,7 +4049,7 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>1059.19</v>
+        <v>814.86</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4060,7 +4057,7 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>1060.2</v>
+        <v>815.5</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4068,7 +4065,7 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>1061.21</v>
+        <v>816.15</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4076,7 +4073,7 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>1062.22</v>
+        <v>816.79</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4084,7 +4081,7 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>1063.23</v>
+        <v>817.4400000000001</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4092,7 +4089,7 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>1064.25</v>
+        <v>818.08</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4100,7 +4097,7 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>1065.26</v>
+        <v>818.73</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4108,7 +4105,7 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>1066.28</v>
+        <v>819.38</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4116,7 +4113,7 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>1067.29</v>
+        <v>820.03</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4124,7 +4121,7 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>1068.31</v>
+        <v>820.6799999999999</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4132,7 +4129,7 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>1069.33</v>
+        <v>821.3200000000001</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4140,7 +4137,7 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>1070.35</v>
+        <v>821.97</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4148,7 +4145,7 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>1071.37</v>
+        <v>822.62</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4156,7 +4153,7 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>1072.39</v>
+        <v>823.27</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4164,7 +4161,7 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>1073.41</v>
+        <v>823.9299999999999</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4172,7 +4169,7 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>1074.44</v>
+        <v>824.58</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4180,7 +4177,7 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>1075.46</v>
+        <v>825.23</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4188,7 +4185,7 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>1076.49</v>
+        <v>825.88</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4196,7 +4193,7 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>1077.51</v>
+        <v>826.54</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4204,7 +4201,7 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>1078.54</v>
+        <v>827.1900000000001</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4212,7 +4209,7 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>1079.57</v>
+        <v>827.84</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4220,7 +4217,7 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>1080.6</v>
+        <v>828.5</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4228,7 +4225,7 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>1081.63</v>
+        <v>829.15</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4236,7 +4233,7 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>1082.66</v>
+        <v>829.8099999999999</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4244,7 +4241,7 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>1083.69</v>
+        <v>830.37</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4252,7 +4249,7 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>1084.59</v>
+        <v>830.92</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4260,7 +4257,7 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>1085.49</v>
+        <v>831.48</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4268,7 +4265,7 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>1086.39</v>
+        <v>832.04</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4276,7 +4273,7 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>1087.29</v>
+        <v>832.6</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4284,7 +4281,7 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>1088.19</v>
+        <v>833.15</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4292,7 +4289,7 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>1089.09</v>
+        <v>833.71</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4300,7 +4297,7 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>1089.99</v>
+        <v>834.27</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4308,7 +4305,7 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>1090.89</v>
+        <v>834.83</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4316,7 +4313,7 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>1091.8</v>
+        <v>835.39</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4324,7 +4321,7 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>1092.7</v>
+        <v>835.95</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4332,7 +4329,7 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>1093.61</v>
+        <v>836.51</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4340,7 +4337,7 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>1094.51</v>
+        <v>837.0700000000001</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4348,7 +4345,7 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>1095.42</v>
+        <v>837.63</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4356,7 +4353,7 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>1096.33</v>
+        <v>838.2</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4364,7 +4361,7 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>1097.23</v>
+        <v>838.76</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4372,7 +4369,7 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>1098.14</v>
+        <v>839.3200000000001</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4380,7 +4377,7 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>1099.05</v>
+        <v>839.88</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4388,7 +4385,7 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>1099.96</v>
+        <v>840.45</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4396,7 +4393,7 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>1100.87</v>
+        <v>841.01</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4404,7 +4401,7 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>1101.79</v>
+        <v>841.58</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4412,15 +4409,7 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>1102.7</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2">
-      <c r="A367" t="s">
-        <v>368</v>
-      </c>
-      <c r="B367">
-        <v>1103.61</v>
+        <v>842.14</v>
       </c>
     </row>
   </sheetData>

--- a/2/1/UF-IVP diaria 1980 - Diaria.xlsx
+++ b/2/1/UF-IVP diaria 1980 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>Serie</t>
   </si>
@@ -25,1099 +25,1102 @@
     <t>Indice de valor promedio (IVP)</t>
   </si>
   <si>
-    <t>01-01-1979</t>
-  </si>
-  <si>
-    <t>02-01-1979</t>
-  </si>
-  <si>
-    <t>03-01-1979</t>
-  </si>
-  <si>
-    <t>04-01-1979</t>
-  </si>
-  <si>
-    <t>05-01-1979</t>
-  </si>
-  <si>
-    <t>06-01-1979</t>
-  </si>
-  <si>
-    <t>07-01-1979</t>
-  </si>
-  <si>
-    <t>08-01-1979</t>
-  </si>
-  <si>
-    <t>09-01-1979</t>
-  </si>
-  <si>
-    <t>10-01-1979</t>
-  </si>
-  <si>
-    <t>11-01-1979</t>
-  </si>
-  <si>
-    <t>12-01-1979</t>
-  </si>
-  <si>
-    <t>13-01-1979</t>
-  </si>
-  <si>
-    <t>14-01-1979</t>
-  </si>
-  <si>
-    <t>15-01-1979</t>
-  </si>
-  <si>
-    <t>16-01-1979</t>
-  </si>
-  <si>
-    <t>17-01-1979</t>
-  </si>
-  <si>
-    <t>18-01-1979</t>
-  </si>
-  <si>
-    <t>19-01-1979</t>
-  </si>
-  <si>
-    <t>20-01-1979</t>
-  </si>
-  <si>
-    <t>21-01-1979</t>
-  </si>
-  <si>
-    <t>22-01-1979</t>
-  </si>
-  <si>
-    <t>23-01-1979</t>
-  </si>
-  <si>
-    <t>24-01-1979</t>
-  </si>
-  <si>
-    <t>25-01-1979</t>
-  </si>
-  <si>
-    <t>26-01-1979</t>
-  </si>
-  <si>
-    <t>27-01-1979</t>
-  </si>
-  <si>
-    <t>28-01-1979</t>
-  </si>
-  <si>
-    <t>29-01-1979</t>
-  </si>
-  <si>
-    <t>30-01-1979</t>
-  </si>
-  <si>
-    <t>31-01-1979</t>
-  </si>
-  <si>
-    <t>01-02-1979</t>
-  </si>
-  <si>
-    <t>02-02-1979</t>
-  </si>
-  <si>
-    <t>03-02-1979</t>
-  </si>
-  <si>
-    <t>04-02-1979</t>
-  </si>
-  <si>
-    <t>05-02-1979</t>
-  </si>
-  <si>
-    <t>06-02-1979</t>
-  </si>
-  <si>
-    <t>07-02-1979</t>
-  </si>
-  <si>
-    <t>08-02-1979</t>
-  </si>
-  <si>
-    <t>09-02-1979</t>
-  </si>
-  <si>
-    <t>10-02-1979</t>
-  </si>
-  <si>
-    <t>11-02-1979</t>
-  </si>
-  <si>
-    <t>12-02-1979</t>
-  </si>
-  <si>
-    <t>13-02-1979</t>
-  </si>
-  <si>
-    <t>14-02-1979</t>
-  </si>
-  <si>
-    <t>15-02-1979</t>
-  </si>
-  <si>
-    <t>16-02-1979</t>
-  </si>
-  <si>
-    <t>17-02-1979</t>
-  </si>
-  <si>
-    <t>18-02-1979</t>
-  </si>
-  <si>
-    <t>19-02-1979</t>
-  </si>
-  <si>
-    <t>20-02-1979</t>
-  </si>
-  <si>
-    <t>21-02-1979</t>
-  </si>
-  <si>
-    <t>22-02-1979</t>
-  </si>
-  <si>
-    <t>23-02-1979</t>
-  </si>
-  <si>
-    <t>24-02-1979</t>
-  </si>
-  <si>
-    <t>25-02-1979</t>
-  </si>
-  <si>
-    <t>26-02-1979</t>
-  </si>
-  <si>
-    <t>27-02-1979</t>
-  </si>
-  <si>
-    <t>28-02-1979</t>
-  </si>
-  <si>
-    <t>01-03-1979</t>
-  </si>
-  <si>
-    <t>02-03-1979</t>
-  </si>
-  <si>
-    <t>03-03-1979</t>
-  </si>
-  <si>
-    <t>04-03-1979</t>
-  </si>
-  <si>
-    <t>05-03-1979</t>
-  </si>
-  <si>
-    <t>06-03-1979</t>
-  </si>
-  <si>
-    <t>07-03-1979</t>
-  </si>
-  <si>
-    <t>08-03-1979</t>
-  </si>
-  <si>
-    <t>09-03-1979</t>
-  </si>
-  <si>
-    <t>10-03-1979</t>
-  </si>
-  <si>
-    <t>11-03-1979</t>
-  </si>
-  <si>
-    <t>12-03-1979</t>
-  </si>
-  <si>
-    <t>13-03-1979</t>
-  </si>
-  <si>
-    <t>14-03-1979</t>
-  </si>
-  <si>
-    <t>15-03-1979</t>
-  </si>
-  <si>
-    <t>16-03-1979</t>
-  </si>
-  <si>
-    <t>17-03-1979</t>
-  </si>
-  <si>
-    <t>18-03-1979</t>
-  </si>
-  <si>
-    <t>19-03-1979</t>
-  </si>
-  <si>
-    <t>20-03-1979</t>
-  </si>
-  <si>
-    <t>21-03-1979</t>
-  </si>
-  <si>
-    <t>22-03-1979</t>
-  </si>
-  <si>
-    <t>23-03-1979</t>
-  </si>
-  <si>
-    <t>24-03-1979</t>
-  </si>
-  <si>
-    <t>25-03-1979</t>
-  </si>
-  <si>
-    <t>26-03-1979</t>
-  </si>
-  <si>
-    <t>27-03-1979</t>
-  </si>
-  <si>
-    <t>28-03-1979</t>
-  </si>
-  <si>
-    <t>29-03-1979</t>
-  </si>
-  <si>
-    <t>30-03-1979</t>
-  </si>
-  <si>
-    <t>31-03-1979</t>
-  </si>
-  <si>
-    <t>01-04-1979</t>
-  </si>
-  <si>
-    <t>02-04-1979</t>
-  </si>
-  <si>
-    <t>03-04-1979</t>
-  </si>
-  <si>
-    <t>04-04-1979</t>
-  </si>
-  <si>
-    <t>05-04-1979</t>
-  </si>
-  <si>
-    <t>06-04-1979</t>
-  </si>
-  <si>
-    <t>07-04-1979</t>
-  </si>
-  <si>
-    <t>08-04-1979</t>
-  </si>
-  <si>
-    <t>09-04-1979</t>
-  </si>
-  <si>
-    <t>10-04-1979</t>
-  </si>
-  <si>
-    <t>11-04-1979</t>
-  </si>
-  <si>
-    <t>12-04-1979</t>
-  </si>
-  <si>
-    <t>13-04-1979</t>
-  </si>
-  <si>
-    <t>14-04-1979</t>
-  </si>
-  <si>
-    <t>15-04-1979</t>
-  </si>
-  <si>
-    <t>16-04-1979</t>
-  </si>
-  <si>
-    <t>17-04-1979</t>
-  </si>
-  <si>
-    <t>18-04-1979</t>
-  </si>
-  <si>
-    <t>19-04-1979</t>
-  </si>
-  <si>
-    <t>20-04-1979</t>
-  </si>
-  <si>
-    <t>21-04-1979</t>
-  </si>
-  <si>
-    <t>22-04-1979</t>
-  </si>
-  <si>
-    <t>23-04-1979</t>
-  </si>
-  <si>
-    <t>24-04-1979</t>
-  </si>
-  <si>
-    <t>25-04-1979</t>
-  </si>
-  <si>
-    <t>26-04-1979</t>
-  </si>
-  <si>
-    <t>27-04-1979</t>
-  </si>
-  <si>
-    <t>28-04-1979</t>
-  </si>
-  <si>
-    <t>29-04-1979</t>
-  </si>
-  <si>
-    <t>30-04-1979</t>
-  </si>
-  <si>
-    <t>01-05-1979</t>
-  </si>
-  <si>
-    <t>02-05-1979</t>
-  </si>
-  <si>
-    <t>03-05-1979</t>
-  </si>
-  <si>
-    <t>04-05-1979</t>
-  </si>
-  <si>
-    <t>05-05-1979</t>
-  </si>
-  <si>
-    <t>06-05-1979</t>
-  </si>
-  <si>
-    <t>07-05-1979</t>
-  </si>
-  <si>
-    <t>08-05-1979</t>
-  </si>
-  <si>
-    <t>09-05-1979</t>
-  </si>
-  <si>
-    <t>10-05-1979</t>
-  </si>
-  <si>
-    <t>11-05-1979</t>
-  </si>
-  <si>
-    <t>12-05-1979</t>
-  </si>
-  <si>
-    <t>13-05-1979</t>
-  </si>
-  <si>
-    <t>14-05-1979</t>
-  </si>
-  <si>
-    <t>15-05-1979</t>
-  </si>
-  <si>
-    <t>16-05-1979</t>
-  </si>
-  <si>
-    <t>17-05-1979</t>
-  </si>
-  <si>
-    <t>18-05-1979</t>
-  </si>
-  <si>
-    <t>19-05-1979</t>
-  </si>
-  <si>
-    <t>20-05-1979</t>
-  </si>
-  <si>
-    <t>21-05-1979</t>
-  </si>
-  <si>
-    <t>22-05-1979</t>
-  </si>
-  <si>
-    <t>23-05-1979</t>
-  </si>
-  <si>
-    <t>24-05-1979</t>
-  </si>
-  <si>
-    <t>25-05-1979</t>
-  </si>
-  <si>
-    <t>26-05-1979</t>
-  </si>
-  <si>
-    <t>27-05-1979</t>
-  </si>
-  <si>
-    <t>28-05-1979</t>
-  </si>
-  <si>
-    <t>29-05-1979</t>
-  </si>
-  <si>
-    <t>30-05-1979</t>
-  </si>
-  <si>
-    <t>31-05-1979</t>
-  </si>
-  <si>
-    <t>01-06-1979</t>
-  </si>
-  <si>
-    <t>02-06-1979</t>
-  </si>
-  <si>
-    <t>03-06-1979</t>
-  </si>
-  <si>
-    <t>04-06-1979</t>
-  </si>
-  <si>
-    <t>05-06-1979</t>
-  </si>
-  <si>
-    <t>06-06-1979</t>
-  </si>
-  <si>
-    <t>07-06-1979</t>
-  </si>
-  <si>
-    <t>08-06-1979</t>
-  </si>
-  <si>
-    <t>09-06-1979</t>
-  </si>
-  <si>
-    <t>10-06-1979</t>
-  </si>
-  <si>
-    <t>11-06-1979</t>
-  </si>
-  <si>
-    <t>12-06-1979</t>
-  </si>
-  <si>
-    <t>13-06-1979</t>
-  </si>
-  <si>
-    <t>14-06-1979</t>
-  </si>
-  <si>
-    <t>15-06-1979</t>
-  </si>
-  <si>
-    <t>16-06-1979</t>
-  </si>
-  <si>
-    <t>17-06-1979</t>
-  </si>
-  <si>
-    <t>18-06-1979</t>
-  </si>
-  <si>
-    <t>19-06-1979</t>
-  </si>
-  <si>
-    <t>20-06-1979</t>
-  </si>
-  <si>
-    <t>21-06-1979</t>
-  </si>
-  <si>
-    <t>22-06-1979</t>
-  </si>
-  <si>
-    <t>23-06-1979</t>
-  </si>
-  <si>
-    <t>24-06-1979</t>
-  </si>
-  <si>
-    <t>25-06-1979</t>
-  </si>
-  <si>
-    <t>26-06-1979</t>
-  </si>
-  <si>
-    <t>27-06-1979</t>
-  </si>
-  <si>
-    <t>28-06-1979</t>
-  </si>
-  <si>
-    <t>29-06-1979</t>
-  </si>
-  <si>
-    <t>30-06-1979</t>
-  </si>
-  <si>
-    <t>01-07-1979</t>
-  </si>
-  <si>
-    <t>02-07-1979</t>
-  </si>
-  <si>
-    <t>03-07-1979</t>
-  </si>
-  <si>
-    <t>04-07-1979</t>
-  </si>
-  <si>
-    <t>05-07-1979</t>
-  </si>
-  <si>
-    <t>06-07-1979</t>
-  </si>
-  <si>
-    <t>07-07-1979</t>
-  </si>
-  <si>
-    <t>08-07-1979</t>
-  </si>
-  <si>
-    <t>09-07-1979</t>
-  </si>
-  <si>
-    <t>10-07-1979</t>
-  </si>
-  <si>
-    <t>11-07-1979</t>
-  </si>
-  <si>
-    <t>12-07-1979</t>
-  </si>
-  <si>
-    <t>13-07-1979</t>
-  </si>
-  <si>
-    <t>14-07-1979</t>
-  </si>
-  <si>
-    <t>15-07-1979</t>
-  </si>
-  <si>
-    <t>16-07-1979</t>
-  </si>
-  <si>
-    <t>17-07-1979</t>
-  </si>
-  <si>
-    <t>18-07-1979</t>
-  </si>
-  <si>
-    <t>19-07-1979</t>
-  </si>
-  <si>
-    <t>20-07-1979</t>
-  </si>
-  <si>
-    <t>21-07-1979</t>
-  </si>
-  <si>
-    <t>22-07-1979</t>
-  </si>
-  <si>
-    <t>23-07-1979</t>
-  </si>
-  <si>
-    <t>24-07-1979</t>
-  </si>
-  <si>
-    <t>25-07-1979</t>
-  </si>
-  <si>
-    <t>26-07-1979</t>
-  </si>
-  <si>
-    <t>27-07-1979</t>
-  </si>
-  <si>
-    <t>28-07-1979</t>
-  </si>
-  <si>
-    <t>29-07-1979</t>
-  </si>
-  <si>
-    <t>30-07-1979</t>
-  </si>
-  <si>
-    <t>31-07-1979</t>
-  </si>
-  <si>
-    <t>01-08-1979</t>
-  </si>
-  <si>
-    <t>02-08-1979</t>
-  </si>
-  <si>
-    <t>03-08-1979</t>
-  </si>
-  <si>
-    <t>04-08-1979</t>
-  </si>
-  <si>
-    <t>05-08-1979</t>
-  </si>
-  <si>
-    <t>06-08-1979</t>
-  </si>
-  <si>
-    <t>07-08-1979</t>
-  </si>
-  <si>
-    <t>08-08-1979</t>
-  </si>
-  <si>
-    <t>09-08-1979</t>
-  </si>
-  <si>
-    <t>10-08-1979</t>
-  </si>
-  <si>
-    <t>11-08-1979</t>
-  </si>
-  <si>
-    <t>12-08-1979</t>
-  </si>
-  <si>
-    <t>13-08-1979</t>
-  </si>
-  <si>
-    <t>14-08-1979</t>
-  </si>
-  <si>
-    <t>15-08-1979</t>
-  </si>
-  <si>
-    <t>16-08-1979</t>
-  </si>
-  <si>
-    <t>17-08-1979</t>
-  </si>
-  <si>
-    <t>18-08-1979</t>
-  </si>
-  <si>
-    <t>19-08-1979</t>
-  </si>
-  <si>
-    <t>20-08-1979</t>
-  </si>
-  <si>
-    <t>21-08-1979</t>
-  </si>
-  <si>
-    <t>22-08-1979</t>
-  </si>
-  <si>
-    <t>23-08-1979</t>
-  </si>
-  <si>
-    <t>24-08-1979</t>
-  </si>
-  <si>
-    <t>25-08-1979</t>
-  </si>
-  <si>
-    <t>26-08-1979</t>
-  </si>
-  <si>
-    <t>27-08-1979</t>
-  </si>
-  <si>
-    <t>28-08-1979</t>
-  </si>
-  <si>
-    <t>29-08-1979</t>
-  </si>
-  <si>
-    <t>30-08-1979</t>
-  </si>
-  <si>
-    <t>31-08-1979</t>
-  </si>
-  <si>
-    <t>01-09-1979</t>
-  </si>
-  <si>
-    <t>02-09-1979</t>
-  </si>
-  <si>
-    <t>03-09-1979</t>
-  </si>
-  <si>
-    <t>04-09-1979</t>
-  </si>
-  <si>
-    <t>05-09-1979</t>
-  </si>
-  <si>
-    <t>06-09-1979</t>
-  </si>
-  <si>
-    <t>07-09-1979</t>
-  </si>
-  <si>
-    <t>08-09-1979</t>
-  </si>
-  <si>
-    <t>09-09-1979</t>
-  </si>
-  <si>
-    <t>10-09-1979</t>
-  </si>
-  <si>
-    <t>11-09-1979</t>
-  </si>
-  <si>
-    <t>12-09-1979</t>
-  </si>
-  <si>
-    <t>13-09-1979</t>
-  </si>
-  <si>
-    <t>14-09-1979</t>
-  </si>
-  <si>
-    <t>15-09-1979</t>
-  </si>
-  <si>
-    <t>16-09-1979</t>
-  </si>
-  <si>
-    <t>17-09-1979</t>
-  </si>
-  <si>
-    <t>18-09-1979</t>
-  </si>
-  <si>
-    <t>19-09-1979</t>
-  </si>
-  <si>
-    <t>20-09-1979</t>
-  </si>
-  <si>
-    <t>21-09-1979</t>
-  </si>
-  <si>
-    <t>22-09-1979</t>
-  </si>
-  <si>
-    <t>23-09-1979</t>
-  </si>
-  <si>
-    <t>24-09-1979</t>
-  </si>
-  <si>
-    <t>25-09-1979</t>
-  </si>
-  <si>
-    <t>26-09-1979</t>
-  </si>
-  <si>
-    <t>27-09-1979</t>
-  </si>
-  <si>
-    <t>28-09-1979</t>
-  </si>
-  <si>
-    <t>29-09-1979</t>
-  </si>
-  <si>
-    <t>30-09-1979</t>
-  </si>
-  <si>
-    <t>01-10-1979</t>
-  </si>
-  <si>
-    <t>02-10-1979</t>
-  </si>
-  <si>
-    <t>03-10-1979</t>
-  </si>
-  <si>
-    <t>04-10-1979</t>
-  </si>
-  <si>
-    <t>05-10-1979</t>
-  </si>
-  <si>
-    <t>06-10-1979</t>
-  </si>
-  <si>
-    <t>07-10-1979</t>
-  </si>
-  <si>
-    <t>08-10-1979</t>
-  </si>
-  <si>
-    <t>09-10-1979</t>
-  </si>
-  <si>
-    <t>10-10-1979</t>
-  </si>
-  <si>
-    <t>11-10-1979</t>
-  </si>
-  <si>
-    <t>12-10-1979</t>
-  </si>
-  <si>
-    <t>13-10-1979</t>
-  </si>
-  <si>
-    <t>14-10-1979</t>
-  </si>
-  <si>
-    <t>15-10-1979</t>
-  </si>
-  <si>
-    <t>16-10-1979</t>
-  </si>
-  <si>
-    <t>17-10-1979</t>
-  </si>
-  <si>
-    <t>18-10-1979</t>
-  </si>
-  <si>
-    <t>19-10-1979</t>
-  </si>
-  <si>
-    <t>20-10-1979</t>
-  </si>
-  <si>
-    <t>21-10-1979</t>
-  </si>
-  <si>
-    <t>22-10-1979</t>
-  </si>
-  <si>
-    <t>23-10-1979</t>
-  </si>
-  <si>
-    <t>24-10-1979</t>
-  </si>
-  <si>
-    <t>25-10-1979</t>
-  </si>
-  <si>
-    <t>26-10-1979</t>
-  </si>
-  <si>
-    <t>27-10-1979</t>
-  </si>
-  <si>
-    <t>28-10-1979</t>
-  </si>
-  <si>
-    <t>29-10-1979</t>
-  </si>
-  <si>
-    <t>30-10-1979</t>
-  </si>
-  <si>
-    <t>31-10-1979</t>
-  </si>
-  <si>
-    <t>01-11-1979</t>
-  </si>
-  <si>
-    <t>02-11-1979</t>
-  </si>
-  <si>
-    <t>03-11-1979</t>
-  </si>
-  <si>
-    <t>04-11-1979</t>
-  </si>
-  <si>
-    <t>05-11-1979</t>
-  </si>
-  <si>
-    <t>06-11-1979</t>
-  </si>
-  <si>
-    <t>07-11-1979</t>
-  </si>
-  <si>
-    <t>08-11-1979</t>
-  </si>
-  <si>
-    <t>09-11-1979</t>
-  </si>
-  <si>
-    <t>10-11-1979</t>
-  </si>
-  <si>
-    <t>11-11-1979</t>
-  </si>
-  <si>
-    <t>12-11-1979</t>
-  </si>
-  <si>
-    <t>13-11-1979</t>
-  </si>
-  <si>
-    <t>14-11-1979</t>
-  </si>
-  <si>
-    <t>15-11-1979</t>
-  </si>
-  <si>
-    <t>16-11-1979</t>
-  </si>
-  <si>
-    <t>17-11-1979</t>
-  </si>
-  <si>
-    <t>18-11-1979</t>
-  </si>
-  <si>
-    <t>19-11-1979</t>
-  </si>
-  <si>
-    <t>20-11-1979</t>
-  </si>
-  <si>
-    <t>21-11-1979</t>
-  </si>
-  <si>
-    <t>22-11-1979</t>
-  </si>
-  <si>
-    <t>23-11-1979</t>
-  </si>
-  <si>
-    <t>24-11-1979</t>
-  </si>
-  <si>
-    <t>25-11-1979</t>
-  </si>
-  <si>
-    <t>26-11-1979</t>
-  </si>
-  <si>
-    <t>27-11-1979</t>
-  </si>
-  <si>
-    <t>28-11-1979</t>
-  </si>
-  <si>
-    <t>29-11-1979</t>
-  </si>
-  <si>
-    <t>30-11-1979</t>
-  </si>
-  <si>
-    <t>01-12-1979</t>
-  </si>
-  <si>
-    <t>02-12-1979</t>
-  </si>
-  <si>
-    <t>03-12-1979</t>
-  </si>
-  <si>
-    <t>04-12-1979</t>
-  </si>
-  <si>
-    <t>05-12-1979</t>
-  </si>
-  <si>
-    <t>06-12-1979</t>
-  </si>
-  <si>
-    <t>07-12-1979</t>
-  </si>
-  <si>
-    <t>08-12-1979</t>
-  </si>
-  <si>
-    <t>09-12-1979</t>
-  </si>
-  <si>
-    <t>10-12-1979</t>
-  </si>
-  <si>
-    <t>11-12-1979</t>
-  </si>
-  <si>
-    <t>12-12-1979</t>
-  </si>
-  <si>
-    <t>13-12-1979</t>
-  </si>
-  <si>
-    <t>14-12-1979</t>
-  </si>
-  <si>
-    <t>15-12-1979</t>
-  </si>
-  <si>
-    <t>16-12-1979</t>
-  </si>
-  <si>
-    <t>17-12-1979</t>
-  </si>
-  <si>
-    <t>18-12-1979</t>
-  </si>
-  <si>
-    <t>19-12-1979</t>
-  </si>
-  <si>
-    <t>20-12-1979</t>
-  </si>
-  <si>
-    <t>21-12-1979</t>
-  </si>
-  <si>
-    <t>22-12-1979</t>
-  </si>
-  <si>
-    <t>23-12-1979</t>
-  </si>
-  <si>
-    <t>24-12-1979</t>
-  </si>
-  <si>
-    <t>25-12-1979</t>
-  </si>
-  <si>
-    <t>26-12-1979</t>
-  </si>
-  <si>
-    <t>27-12-1979</t>
-  </si>
-  <si>
-    <t>28-12-1979</t>
-  </si>
-  <si>
-    <t>29-12-1979</t>
-  </si>
-  <si>
-    <t>30-12-1979</t>
-  </si>
-  <si>
-    <t>31-12-1979</t>
+    <t>01-01-1980</t>
+  </si>
+  <si>
+    <t>02-01-1980</t>
+  </si>
+  <si>
+    <t>03-01-1980</t>
+  </si>
+  <si>
+    <t>04-01-1980</t>
+  </si>
+  <si>
+    <t>05-01-1980</t>
+  </si>
+  <si>
+    <t>06-01-1980</t>
+  </si>
+  <si>
+    <t>07-01-1980</t>
+  </si>
+  <si>
+    <t>08-01-1980</t>
+  </si>
+  <si>
+    <t>09-01-1980</t>
+  </si>
+  <si>
+    <t>10-01-1980</t>
+  </si>
+  <si>
+    <t>11-01-1980</t>
+  </si>
+  <si>
+    <t>12-01-1980</t>
+  </si>
+  <si>
+    <t>13-01-1980</t>
+  </si>
+  <si>
+    <t>14-01-1980</t>
+  </si>
+  <si>
+    <t>15-01-1980</t>
+  </si>
+  <si>
+    <t>16-01-1980</t>
+  </si>
+  <si>
+    <t>17-01-1980</t>
+  </si>
+  <si>
+    <t>18-01-1980</t>
+  </si>
+  <si>
+    <t>19-01-1980</t>
+  </si>
+  <si>
+    <t>20-01-1980</t>
+  </si>
+  <si>
+    <t>21-01-1980</t>
+  </si>
+  <si>
+    <t>22-01-1980</t>
+  </si>
+  <si>
+    <t>23-01-1980</t>
+  </si>
+  <si>
+    <t>24-01-1980</t>
+  </si>
+  <si>
+    <t>25-01-1980</t>
+  </si>
+  <si>
+    <t>26-01-1980</t>
+  </si>
+  <si>
+    <t>27-01-1980</t>
+  </si>
+  <si>
+    <t>28-01-1980</t>
+  </si>
+  <si>
+    <t>29-01-1980</t>
+  </si>
+  <si>
+    <t>30-01-1980</t>
+  </si>
+  <si>
+    <t>31-01-1980</t>
+  </si>
+  <si>
+    <t>01-02-1980</t>
+  </si>
+  <si>
+    <t>02-02-1980</t>
+  </si>
+  <si>
+    <t>03-02-1980</t>
+  </si>
+  <si>
+    <t>04-02-1980</t>
+  </si>
+  <si>
+    <t>05-02-1980</t>
+  </si>
+  <si>
+    <t>06-02-1980</t>
+  </si>
+  <si>
+    <t>07-02-1980</t>
+  </si>
+  <si>
+    <t>08-02-1980</t>
+  </si>
+  <si>
+    <t>09-02-1980</t>
+  </si>
+  <si>
+    <t>10-02-1980</t>
+  </si>
+  <si>
+    <t>11-02-1980</t>
+  </si>
+  <si>
+    <t>12-02-1980</t>
+  </si>
+  <si>
+    <t>13-02-1980</t>
+  </si>
+  <si>
+    <t>14-02-1980</t>
+  </si>
+  <si>
+    <t>15-02-1980</t>
+  </si>
+  <si>
+    <t>16-02-1980</t>
+  </si>
+  <si>
+    <t>17-02-1980</t>
+  </si>
+  <si>
+    <t>18-02-1980</t>
+  </si>
+  <si>
+    <t>19-02-1980</t>
+  </si>
+  <si>
+    <t>20-02-1980</t>
+  </si>
+  <si>
+    <t>21-02-1980</t>
+  </si>
+  <si>
+    <t>22-02-1980</t>
+  </si>
+  <si>
+    <t>23-02-1980</t>
+  </si>
+  <si>
+    <t>24-02-1980</t>
+  </si>
+  <si>
+    <t>25-02-1980</t>
+  </si>
+  <si>
+    <t>26-02-1980</t>
+  </si>
+  <si>
+    <t>27-02-1980</t>
+  </si>
+  <si>
+    <t>28-02-1980</t>
+  </si>
+  <si>
+    <t>29-02-1980</t>
+  </si>
+  <si>
+    <t>01-03-1980</t>
+  </si>
+  <si>
+    <t>02-03-1980</t>
+  </si>
+  <si>
+    <t>03-03-1980</t>
+  </si>
+  <si>
+    <t>04-03-1980</t>
+  </si>
+  <si>
+    <t>05-03-1980</t>
+  </si>
+  <si>
+    <t>06-03-1980</t>
+  </si>
+  <si>
+    <t>07-03-1980</t>
+  </si>
+  <si>
+    <t>08-03-1980</t>
+  </si>
+  <si>
+    <t>09-03-1980</t>
+  </si>
+  <si>
+    <t>10-03-1980</t>
+  </si>
+  <si>
+    <t>11-03-1980</t>
+  </si>
+  <si>
+    <t>12-03-1980</t>
+  </si>
+  <si>
+    <t>13-03-1980</t>
+  </si>
+  <si>
+    <t>14-03-1980</t>
+  </si>
+  <si>
+    <t>15-03-1980</t>
+  </si>
+  <si>
+    <t>16-03-1980</t>
+  </si>
+  <si>
+    <t>17-03-1980</t>
+  </si>
+  <si>
+    <t>18-03-1980</t>
+  </si>
+  <si>
+    <t>19-03-1980</t>
+  </si>
+  <si>
+    <t>20-03-1980</t>
+  </si>
+  <si>
+    <t>21-03-1980</t>
+  </si>
+  <si>
+    <t>22-03-1980</t>
+  </si>
+  <si>
+    <t>23-03-1980</t>
+  </si>
+  <si>
+    <t>24-03-1980</t>
+  </si>
+  <si>
+    <t>25-03-1980</t>
+  </si>
+  <si>
+    <t>26-03-1980</t>
+  </si>
+  <si>
+    <t>27-03-1980</t>
+  </si>
+  <si>
+    <t>28-03-1980</t>
+  </si>
+  <si>
+    <t>29-03-1980</t>
+  </si>
+  <si>
+    <t>30-03-1980</t>
+  </si>
+  <si>
+    <t>31-03-1980</t>
+  </si>
+  <si>
+    <t>01-04-1980</t>
+  </si>
+  <si>
+    <t>02-04-1980</t>
+  </si>
+  <si>
+    <t>03-04-1980</t>
+  </si>
+  <si>
+    <t>04-04-1980</t>
+  </si>
+  <si>
+    <t>05-04-1980</t>
+  </si>
+  <si>
+    <t>06-04-1980</t>
+  </si>
+  <si>
+    <t>07-04-1980</t>
+  </si>
+  <si>
+    <t>08-04-1980</t>
+  </si>
+  <si>
+    <t>09-04-1980</t>
+  </si>
+  <si>
+    <t>10-04-1980</t>
+  </si>
+  <si>
+    <t>11-04-1980</t>
+  </si>
+  <si>
+    <t>12-04-1980</t>
+  </si>
+  <si>
+    <t>13-04-1980</t>
+  </si>
+  <si>
+    <t>14-04-1980</t>
+  </si>
+  <si>
+    <t>15-04-1980</t>
+  </si>
+  <si>
+    <t>16-04-1980</t>
+  </si>
+  <si>
+    <t>17-04-1980</t>
+  </si>
+  <si>
+    <t>18-04-1980</t>
+  </si>
+  <si>
+    <t>19-04-1980</t>
+  </si>
+  <si>
+    <t>20-04-1980</t>
+  </si>
+  <si>
+    <t>21-04-1980</t>
+  </si>
+  <si>
+    <t>22-04-1980</t>
+  </si>
+  <si>
+    <t>23-04-1980</t>
+  </si>
+  <si>
+    <t>24-04-1980</t>
+  </si>
+  <si>
+    <t>25-04-1980</t>
+  </si>
+  <si>
+    <t>26-04-1980</t>
+  </si>
+  <si>
+    <t>27-04-1980</t>
+  </si>
+  <si>
+    <t>28-04-1980</t>
+  </si>
+  <si>
+    <t>29-04-1980</t>
+  </si>
+  <si>
+    <t>30-04-1980</t>
+  </si>
+  <si>
+    <t>01-05-1980</t>
+  </si>
+  <si>
+    <t>02-05-1980</t>
+  </si>
+  <si>
+    <t>03-05-1980</t>
+  </si>
+  <si>
+    <t>04-05-1980</t>
+  </si>
+  <si>
+    <t>05-05-1980</t>
+  </si>
+  <si>
+    <t>06-05-1980</t>
+  </si>
+  <si>
+    <t>07-05-1980</t>
+  </si>
+  <si>
+    <t>08-05-1980</t>
+  </si>
+  <si>
+    <t>09-05-1980</t>
+  </si>
+  <si>
+    <t>10-05-1980</t>
+  </si>
+  <si>
+    <t>11-05-1980</t>
+  </si>
+  <si>
+    <t>12-05-1980</t>
+  </si>
+  <si>
+    <t>13-05-1980</t>
+  </si>
+  <si>
+    <t>14-05-1980</t>
+  </si>
+  <si>
+    <t>15-05-1980</t>
+  </si>
+  <si>
+    <t>16-05-1980</t>
+  </si>
+  <si>
+    <t>17-05-1980</t>
+  </si>
+  <si>
+    <t>18-05-1980</t>
+  </si>
+  <si>
+    <t>19-05-1980</t>
+  </si>
+  <si>
+    <t>20-05-1980</t>
+  </si>
+  <si>
+    <t>21-05-1980</t>
+  </si>
+  <si>
+    <t>22-05-1980</t>
+  </si>
+  <si>
+    <t>23-05-1980</t>
+  </si>
+  <si>
+    <t>24-05-1980</t>
+  </si>
+  <si>
+    <t>25-05-1980</t>
+  </si>
+  <si>
+    <t>26-05-1980</t>
+  </si>
+  <si>
+    <t>27-05-1980</t>
+  </si>
+  <si>
+    <t>28-05-1980</t>
+  </si>
+  <si>
+    <t>29-05-1980</t>
+  </si>
+  <si>
+    <t>30-05-1980</t>
+  </si>
+  <si>
+    <t>31-05-1980</t>
+  </si>
+  <si>
+    <t>01-06-1980</t>
+  </si>
+  <si>
+    <t>02-06-1980</t>
+  </si>
+  <si>
+    <t>03-06-1980</t>
+  </si>
+  <si>
+    <t>04-06-1980</t>
+  </si>
+  <si>
+    <t>05-06-1980</t>
+  </si>
+  <si>
+    <t>06-06-1980</t>
+  </si>
+  <si>
+    <t>07-06-1980</t>
+  </si>
+  <si>
+    <t>08-06-1980</t>
+  </si>
+  <si>
+    <t>09-06-1980</t>
+  </si>
+  <si>
+    <t>10-06-1980</t>
+  </si>
+  <si>
+    <t>11-06-1980</t>
+  </si>
+  <si>
+    <t>12-06-1980</t>
+  </si>
+  <si>
+    <t>13-06-1980</t>
+  </si>
+  <si>
+    <t>14-06-1980</t>
+  </si>
+  <si>
+    <t>15-06-1980</t>
+  </si>
+  <si>
+    <t>16-06-1980</t>
+  </si>
+  <si>
+    <t>17-06-1980</t>
+  </si>
+  <si>
+    <t>18-06-1980</t>
+  </si>
+  <si>
+    <t>19-06-1980</t>
+  </si>
+  <si>
+    <t>20-06-1980</t>
+  </si>
+  <si>
+    <t>21-06-1980</t>
+  </si>
+  <si>
+    <t>22-06-1980</t>
+  </si>
+  <si>
+    <t>23-06-1980</t>
+  </si>
+  <si>
+    <t>24-06-1980</t>
+  </si>
+  <si>
+    <t>25-06-1980</t>
+  </si>
+  <si>
+    <t>26-06-1980</t>
+  </si>
+  <si>
+    <t>27-06-1980</t>
+  </si>
+  <si>
+    <t>28-06-1980</t>
+  </si>
+  <si>
+    <t>29-06-1980</t>
+  </si>
+  <si>
+    <t>30-06-1980</t>
+  </si>
+  <si>
+    <t>01-07-1980</t>
+  </si>
+  <si>
+    <t>02-07-1980</t>
+  </si>
+  <si>
+    <t>03-07-1980</t>
+  </si>
+  <si>
+    <t>04-07-1980</t>
+  </si>
+  <si>
+    <t>05-07-1980</t>
+  </si>
+  <si>
+    <t>06-07-1980</t>
+  </si>
+  <si>
+    <t>07-07-1980</t>
+  </si>
+  <si>
+    <t>08-07-1980</t>
+  </si>
+  <si>
+    <t>09-07-1980</t>
+  </si>
+  <si>
+    <t>10-07-1980</t>
+  </si>
+  <si>
+    <t>11-07-1980</t>
+  </si>
+  <si>
+    <t>12-07-1980</t>
+  </si>
+  <si>
+    <t>13-07-1980</t>
+  </si>
+  <si>
+    <t>14-07-1980</t>
+  </si>
+  <si>
+    <t>15-07-1980</t>
+  </si>
+  <si>
+    <t>16-07-1980</t>
+  </si>
+  <si>
+    <t>17-07-1980</t>
+  </si>
+  <si>
+    <t>18-07-1980</t>
+  </si>
+  <si>
+    <t>19-07-1980</t>
+  </si>
+  <si>
+    <t>20-07-1980</t>
+  </si>
+  <si>
+    <t>21-07-1980</t>
+  </si>
+  <si>
+    <t>22-07-1980</t>
+  </si>
+  <si>
+    <t>23-07-1980</t>
+  </si>
+  <si>
+    <t>24-07-1980</t>
+  </si>
+  <si>
+    <t>25-07-1980</t>
+  </si>
+  <si>
+    <t>26-07-1980</t>
+  </si>
+  <si>
+    <t>27-07-1980</t>
+  </si>
+  <si>
+    <t>28-07-1980</t>
+  </si>
+  <si>
+    <t>29-07-1980</t>
+  </si>
+  <si>
+    <t>30-07-1980</t>
+  </si>
+  <si>
+    <t>31-07-1980</t>
+  </si>
+  <si>
+    <t>01-08-1980</t>
+  </si>
+  <si>
+    <t>02-08-1980</t>
+  </si>
+  <si>
+    <t>03-08-1980</t>
+  </si>
+  <si>
+    <t>04-08-1980</t>
+  </si>
+  <si>
+    <t>05-08-1980</t>
+  </si>
+  <si>
+    <t>06-08-1980</t>
+  </si>
+  <si>
+    <t>07-08-1980</t>
+  </si>
+  <si>
+    <t>08-08-1980</t>
+  </si>
+  <si>
+    <t>09-08-1980</t>
+  </si>
+  <si>
+    <t>10-08-1980</t>
+  </si>
+  <si>
+    <t>11-08-1980</t>
+  </si>
+  <si>
+    <t>12-08-1980</t>
+  </si>
+  <si>
+    <t>13-08-1980</t>
+  </si>
+  <si>
+    <t>14-08-1980</t>
+  </si>
+  <si>
+    <t>15-08-1980</t>
+  </si>
+  <si>
+    <t>16-08-1980</t>
+  </si>
+  <si>
+    <t>17-08-1980</t>
+  </si>
+  <si>
+    <t>18-08-1980</t>
+  </si>
+  <si>
+    <t>19-08-1980</t>
+  </si>
+  <si>
+    <t>20-08-1980</t>
+  </si>
+  <si>
+    <t>21-08-1980</t>
+  </si>
+  <si>
+    <t>22-08-1980</t>
+  </si>
+  <si>
+    <t>23-08-1980</t>
+  </si>
+  <si>
+    <t>24-08-1980</t>
+  </si>
+  <si>
+    <t>25-08-1980</t>
+  </si>
+  <si>
+    <t>26-08-1980</t>
+  </si>
+  <si>
+    <t>27-08-1980</t>
+  </si>
+  <si>
+    <t>28-08-1980</t>
+  </si>
+  <si>
+    <t>29-08-1980</t>
+  </si>
+  <si>
+    <t>30-08-1980</t>
+  </si>
+  <si>
+    <t>31-08-1980</t>
+  </si>
+  <si>
+    <t>01-09-1980</t>
+  </si>
+  <si>
+    <t>02-09-1980</t>
+  </si>
+  <si>
+    <t>03-09-1980</t>
+  </si>
+  <si>
+    <t>04-09-1980</t>
+  </si>
+  <si>
+    <t>05-09-1980</t>
+  </si>
+  <si>
+    <t>06-09-1980</t>
+  </si>
+  <si>
+    <t>07-09-1980</t>
+  </si>
+  <si>
+    <t>08-09-1980</t>
+  </si>
+  <si>
+    <t>09-09-1980</t>
+  </si>
+  <si>
+    <t>10-09-1980</t>
+  </si>
+  <si>
+    <t>11-09-1980</t>
+  </si>
+  <si>
+    <t>12-09-1980</t>
+  </si>
+  <si>
+    <t>13-09-1980</t>
+  </si>
+  <si>
+    <t>14-09-1980</t>
+  </si>
+  <si>
+    <t>15-09-1980</t>
+  </si>
+  <si>
+    <t>16-09-1980</t>
+  </si>
+  <si>
+    <t>17-09-1980</t>
+  </si>
+  <si>
+    <t>18-09-1980</t>
+  </si>
+  <si>
+    <t>19-09-1980</t>
+  </si>
+  <si>
+    <t>20-09-1980</t>
+  </si>
+  <si>
+    <t>21-09-1980</t>
+  </si>
+  <si>
+    <t>22-09-1980</t>
+  </si>
+  <si>
+    <t>23-09-1980</t>
+  </si>
+  <si>
+    <t>24-09-1980</t>
+  </si>
+  <si>
+    <t>25-09-1980</t>
+  </si>
+  <si>
+    <t>26-09-1980</t>
+  </si>
+  <si>
+    <t>27-09-1980</t>
+  </si>
+  <si>
+    <t>28-09-1980</t>
+  </si>
+  <si>
+    <t>29-09-1980</t>
+  </si>
+  <si>
+    <t>30-09-1980</t>
+  </si>
+  <si>
+    <t>01-10-1980</t>
+  </si>
+  <si>
+    <t>02-10-1980</t>
+  </si>
+  <si>
+    <t>03-10-1980</t>
+  </si>
+  <si>
+    <t>04-10-1980</t>
+  </si>
+  <si>
+    <t>05-10-1980</t>
+  </si>
+  <si>
+    <t>06-10-1980</t>
+  </si>
+  <si>
+    <t>07-10-1980</t>
+  </si>
+  <si>
+    <t>08-10-1980</t>
+  </si>
+  <si>
+    <t>09-10-1980</t>
+  </si>
+  <si>
+    <t>10-10-1980</t>
+  </si>
+  <si>
+    <t>11-10-1980</t>
+  </si>
+  <si>
+    <t>12-10-1980</t>
+  </si>
+  <si>
+    <t>13-10-1980</t>
+  </si>
+  <si>
+    <t>14-10-1980</t>
+  </si>
+  <si>
+    <t>15-10-1980</t>
+  </si>
+  <si>
+    <t>16-10-1980</t>
+  </si>
+  <si>
+    <t>17-10-1980</t>
+  </si>
+  <si>
+    <t>18-10-1980</t>
+  </si>
+  <si>
+    <t>19-10-1980</t>
+  </si>
+  <si>
+    <t>20-10-1980</t>
+  </si>
+  <si>
+    <t>21-10-1980</t>
+  </si>
+  <si>
+    <t>22-10-1980</t>
+  </si>
+  <si>
+    <t>23-10-1980</t>
+  </si>
+  <si>
+    <t>24-10-1980</t>
+  </si>
+  <si>
+    <t>25-10-1980</t>
+  </si>
+  <si>
+    <t>26-10-1980</t>
+  </si>
+  <si>
+    <t>27-10-1980</t>
+  </si>
+  <si>
+    <t>28-10-1980</t>
+  </si>
+  <si>
+    <t>29-10-1980</t>
+  </si>
+  <si>
+    <t>30-10-1980</t>
+  </si>
+  <si>
+    <t>31-10-1980</t>
+  </si>
+  <si>
+    <t>01-11-1980</t>
+  </si>
+  <si>
+    <t>02-11-1980</t>
+  </si>
+  <si>
+    <t>03-11-1980</t>
+  </si>
+  <si>
+    <t>04-11-1980</t>
+  </si>
+  <si>
+    <t>05-11-1980</t>
+  </si>
+  <si>
+    <t>06-11-1980</t>
+  </si>
+  <si>
+    <t>07-11-1980</t>
+  </si>
+  <si>
+    <t>08-11-1980</t>
+  </si>
+  <si>
+    <t>09-11-1980</t>
+  </si>
+  <si>
+    <t>10-11-1980</t>
+  </si>
+  <si>
+    <t>11-11-1980</t>
+  </si>
+  <si>
+    <t>12-11-1980</t>
+  </si>
+  <si>
+    <t>13-11-1980</t>
+  </si>
+  <si>
+    <t>14-11-1980</t>
+  </si>
+  <si>
+    <t>15-11-1980</t>
+  </si>
+  <si>
+    <t>16-11-1980</t>
+  </si>
+  <si>
+    <t>17-11-1980</t>
+  </si>
+  <si>
+    <t>18-11-1980</t>
+  </si>
+  <si>
+    <t>19-11-1980</t>
+  </si>
+  <si>
+    <t>20-11-1980</t>
+  </si>
+  <si>
+    <t>21-11-1980</t>
+  </si>
+  <si>
+    <t>22-11-1980</t>
+  </si>
+  <si>
+    <t>23-11-1980</t>
+  </si>
+  <si>
+    <t>24-11-1980</t>
+  </si>
+  <si>
+    <t>25-11-1980</t>
+  </si>
+  <si>
+    <t>26-11-1980</t>
+  </si>
+  <si>
+    <t>27-11-1980</t>
+  </si>
+  <si>
+    <t>28-11-1980</t>
+  </si>
+  <si>
+    <t>29-11-1980</t>
+  </si>
+  <si>
+    <t>30-11-1980</t>
+  </si>
+  <si>
+    <t>01-12-1980</t>
+  </si>
+  <si>
+    <t>02-12-1980</t>
+  </si>
+  <si>
+    <t>03-12-1980</t>
+  </si>
+  <si>
+    <t>04-12-1980</t>
+  </si>
+  <si>
+    <t>05-12-1980</t>
+  </si>
+  <si>
+    <t>06-12-1980</t>
+  </si>
+  <si>
+    <t>07-12-1980</t>
+  </si>
+  <si>
+    <t>08-12-1980</t>
+  </si>
+  <si>
+    <t>09-12-1980</t>
+  </si>
+  <si>
+    <t>10-12-1980</t>
+  </si>
+  <si>
+    <t>11-12-1980</t>
+  </si>
+  <si>
+    <t>12-12-1980</t>
+  </si>
+  <si>
+    <t>13-12-1980</t>
+  </si>
+  <si>
+    <t>14-12-1980</t>
+  </si>
+  <si>
+    <t>15-12-1980</t>
+  </si>
+  <si>
+    <t>16-12-1980</t>
+  </si>
+  <si>
+    <t>17-12-1980</t>
+  </si>
+  <si>
+    <t>18-12-1980</t>
+  </si>
+  <si>
+    <t>19-12-1980</t>
+  </si>
+  <si>
+    <t>20-12-1980</t>
+  </si>
+  <si>
+    <t>21-12-1980</t>
+  </si>
+  <si>
+    <t>22-12-1980</t>
+  </si>
+  <si>
+    <t>23-12-1980</t>
+  </si>
+  <si>
+    <t>24-12-1980</t>
+  </si>
+  <si>
+    <t>25-12-1980</t>
+  </si>
+  <si>
+    <t>26-12-1980</t>
+  </si>
+  <si>
+    <t>27-12-1980</t>
+  </si>
+  <si>
+    <t>28-12-1980</t>
+  </si>
+  <si>
+    <t>29-12-1980</t>
+  </si>
+  <si>
+    <t>30-12-1980</t>
+  </si>
+  <si>
+    <t>31-12-1980</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C366"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1497,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>613.62</v>
+        <v>842.7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1505,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>613.88</v>
+        <v>843.27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1513,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>614.13</v>
+        <v>843.83</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1521,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>614.39</v>
+        <v>844.4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1529,7 +1532,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>614.65</v>
+        <v>844.97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1537,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>614.9</v>
+        <v>845.53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1545,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>615.16</v>
+        <v>846.1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1553,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>615.41</v>
+        <v>846.67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1561,7 +1564,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>615.67</v>
+        <v>847.24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1569,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>615.97</v>
+        <v>847.83</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1577,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>616.26</v>
+        <v>848.4299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1585,7 +1588,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>616.5599999999999</v>
+        <v>849.03</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1593,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>616.85</v>
+        <v>849.62</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1601,7 +1604,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>617.15</v>
+        <v>850.22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1609,7 +1612,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>617.45</v>
+        <v>850.8200000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1617,7 +1620,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>617.74</v>
+        <v>851.41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1625,7 +1628,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>618.04</v>
+        <v>852.01</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1633,7 +1636,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>618.34</v>
+        <v>852.61</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1641,7 +1644,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>618.63</v>
+        <v>853.21</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1649,7 +1652,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>618.9299999999999</v>
+        <v>853.8099999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1657,7 +1660,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>619.23</v>
+        <v>854.41</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1665,7 +1668,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>619.53</v>
+        <v>855.01</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1673,7 +1676,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>619.8200000000001</v>
+        <v>855.61</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1681,7 +1684,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>620.12</v>
+        <v>856.21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1689,7 +1692,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>620.42</v>
+        <v>856.8099999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1697,7 +1700,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>620.72</v>
+        <v>857.41</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1705,7 +1708,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>621.02</v>
+        <v>858.01</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1713,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>621.3099999999999</v>
+        <v>858.62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1721,7 +1724,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>621.61</v>
+        <v>859.22</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1729,7 +1732,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>621.91</v>
+        <v>859.8200000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1737,7 +1740,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>622.21</v>
+        <v>860.4299999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1745,7 +1748,7 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>622.51</v>
+        <v>861.03</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1753,7 +1756,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>622.8099999999999</v>
+        <v>861.63</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1761,7 +1764,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>623.11</v>
+        <v>862.24</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1769,7 +1772,7 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>623.41</v>
+        <v>862.85</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1777,7 +1780,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>623.71</v>
+        <v>863.45</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1785,7 +1788,7 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>624.01</v>
+        <v>864.0599999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1793,7 +1796,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>624.3099999999999</v>
+        <v>864.66</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1801,7 +1804,7 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>624.6</v>
+        <v>865.27</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1809,7 +1812,7 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>624.91</v>
+        <v>865.88</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1817,7 +1820,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>625.4</v>
+        <v>866.5</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1825,7 +1828,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>625.88</v>
+        <v>867.12</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1833,7 +1836,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>626.37</v>
+        <v>867.74</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1841,7 +1844,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>626.86</v>
+        <v>868.37</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1849,7 +1852,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>627.34</v>
+        <v>868.99</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1857,7 +1860,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>627.83</v>
+        <v>869.61</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1865,7 +1868,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>628.3200000000001</v>
+        <v>870.23</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1873,7 +1876,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>628.8099999999999</v>
+        <v>870.86</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1881,7 +1884,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>629.3</v>
+        <v>871.48</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1889,7 +1892,7 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>629.79</v>
+        <v>872.11</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1897,7 +1900,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>630.28</v>
+        <v>872.73</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1905,7 +1908,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>630.77</v>
+        <v>873.36</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1913,7 +1916,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>631.26</v>
+        <v>873.98</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1921,7 +1924,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>631.75</v>
+        <v>874.61</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1929,7 +1932,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <v>632.24</v>
+        <v>875.24</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1937,7 +1940,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <v>632.73</v>
+        <v>875.87</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1945,7 +1948,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>633.22</v>
+        <v>876.49</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1953,7 +1956,7 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>633.71</v>
+        <v>877.12</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1961,7 +1964,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>634.21</v>
+        <v>877.75</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1969,7 +1972,7 @@
         <v>62</v>
       </c>
       <c r="B61">
-        <v>634.7</v>
+        <v>878.38</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1977,7 +1980,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>635.1900000000001</v>
+        <v>879.01</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1985,7 +1988,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>635.6900000000001</v>
+        <v>879.64</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1993,7 +1996,7 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>636.1799999999999</v>
+        <v>880.27</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2001,7 +2004,7 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>636.6799999999999</v>
+        <v>880.9</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2009,7 +2012,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>637.17</v>
+        <v>881.53</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2017,7 +2020,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>637.67</v>
+        <v>882.16</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2025,7 +2028,7 @@
         <v>69</v>
       </c>
       <c r="B68">
-        <v>638.16</v>
+        <v>882.8</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2033,7 +2036,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>638.66</v>
+        <v>883.4299999999999</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2041,7 +2044,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>638.99</v>
+        <v>884.0599999999999</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2049,7 +2052,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>639.11</v>
+        <v>884.5700000000001</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2057,7 +2060,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>639.64</v>
+        <v>885.08</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2065,7 +2068,7 @@
         <v>74</v>
       </c>
       <c r="B73">
-        <v>639.97</v>
+        <v>885.59</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2073,7 +2076,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>640.3</v>
+        <v>886.1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2081,7 +2084,7 @@
         <v>76</v>
       </c>
       <c r="B75">
-        <v>640.63</v>
+        <v>886.61</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2089,7 +2092,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>640.95</v>
+        <v>887.12</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2097,7 +2100,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>641.28</v>
+        <v>887.63</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2105,7 +2108,7 @@
         <v>79</v>
       </c>
       <c r="B78">
-        <v>641.61</v>
+        <v>888.14</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2113,7 +2116,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>641.9400000000001</v>
+        <v>888.65</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2121,7 +2124,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>642.27</v>
+        <v>889.16</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2129,7 +2132,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>642.6</v>
+        <v>889.67</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2137,7 +2140,7 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>642.9299999999999</v>
+        <v>890.1900000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2145,7 +2148,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>643.25</v>
+        <v>890.7</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2153,7 +2156,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>643.58</v>
+        <v>891.21</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2161,7 +2164,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>643.91</v>
+        <v>891.72</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2169,7 +2172,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>644.24</v>
+        <v>892.24</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2177,7 +2180,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>644.5700000000001</v>
+        <v>892.75</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2185,7 +2188,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>644.9</v>
+        <v>893.27</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2193,7 +2196,7 @@
         <v>90</v>
       </c>
       <c r="B89">
-        <v>645.23</v>
+        <v>893.78</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2201,7 +2204,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>645.5599999999999</v>
+        <v>894.29</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2209,7 +2212,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>645.9</v>
+        <v>894.8099999999999</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2217,7 +2220,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>646.23</v>
+        <v>895.3200000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2225,7 +2228,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>646.5599999999999</v>
+        <v>895.84</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2233,7 +2236,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>646.89</v>
+        <v>896.35</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2241,7 +2244,7 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>647.22</v>
+        <v>896.87</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2249,7 +2252,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>647.55</v>
+        <v>897.39</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2257,7 +2260,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>647.88</v>
+        <v>897.9</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2265,7 +2268,7 @@
         <v>99</v>
       </c>
       <c r="B98">
-        <v>648.21</v>
+        <v>898.42</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2273,7 +2276,7 @@
         <v>100</v>
       </c>
       <c r="B99">
-        <v>648.55</v>
+        <v>898.9400000000001</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2281,7 +2284,7 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>648.88</v>
+        <v>899.46</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2289,7 +2292,7 @@
         <v>102</v>
       </c>
       <c r="B101">
-        <v>649.48</v>
+        <v>899.97</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2297,7 +2300,7 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>650.08</v>
+        <v>900.83</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2305,7 +2308,7 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>650.67</v>
+        <v>901.6900000000001</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2313,7 +2316,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>651.27</v>
+        <v>902.55</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2321,7 +2324,7 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>651.87</v>
+        <v>903.41</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2329,7 +2332,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>652.47</v>
+        <v>904.27</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2337,7 +2340,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>653.0700000000001</v>
+        <v>905.13</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2345,7 +2348,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>653.6799999999999</v>
+        <v>905.99</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2353,7 +2356,7 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>654.28</v>
+        <v>906.86</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2361,7 +2364,7 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>654.88</v>
+        <v>907.72</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2369,7 +2372,7 @@
         <v>112</v>
       </c>
       <c r="B111">
-        <v>655.48</v>
+        <v>908.59</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2377,7 +2380,7 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>656.09</v>
+        <v>909.45</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2385,7 +2388,7 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>656.6900000000001</v>
+        <v>910.3200000000001</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2393,7 +2396,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>657.3</v>
+        <v>911.1900000000001</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2401,7 +2404,7 @@
         <v>116</v>
       </c>
       <c r="B115">
-        <v>657.9</v>
+        <v>912.0599999999999</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2409,7 +2412,7 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>658.51</v>
+        <v>912.9299999999999</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2417,7 +2420,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>659.11</v>
+        <v>913.8</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2425,7 +2428,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>659.72</v>
+        <v>914.67</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2433,7 +2436,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>660.33</v>
+        <v>915.54</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2441,7 +2444,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>660.9400000000001</v>
+        <v>916.41</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2449,7 +2452,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>661.55</v>
+        <v>917.29</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2457,7 +2460,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>662.15</v>
+        <v>918.16</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2465,7 +2468,7 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <v>662.76</v>
+        <v>919.04</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2473,7 +2476,7 @@
         <v>125</v>
       </c>
       <c r="B124">
-        <v>663.37</v>
+        <v>919.91</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2481,7 +2484,7 @@
         <v>126</v>
       </c>
       <c r="B125">
-        <v>663.99</v>
+        <v>920.79</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2489,7 +2492,7 @@
         <v>127</v>
       </c>
       <c r="B126">
-        <v>664.6</v>
+        <v>921.67</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2497,7 +2500,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>665.21</v>
+        <v>922.55</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2505,7 +2508,7 @@
         <v>129</v>
       </c>
       <c r="B128">
-        <v>665.8200000000001</v>
+        <v>923.4299999999999</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2513,7 +2516,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>666.4299999999999</v>
+        <v>924.3099999999999</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2521,7 +2524,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>667.05</v>
+        <v>925.1900000000001</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2529,7 +2532,7 @@
         <v>132</v>
       </c>
       <c r="B131">
-        <v>667.6</v>
+        <v>926.0700000000001</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2537,7 +2540,7 @@
         <v>133</v>
       </c>
       <c r="B132">
-        <v>668.16</v>
+        <v>926.8099999999999</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2545,7 +2548,7 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>668.71</v>
+        <v>927.55</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2553,7 +2556,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>669.26</v>
+        <v>928.29</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2561,7 +2564,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>669.8200000000001</v>
+        <v>929.03</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2569,7 +2572,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>670.37</v>
+        <v>929.77</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2577,7 +2580,7 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>670.9299999999999</v>
+        <v>930.51</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2585,7 +2588,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>671.48</v>
+        <v>931.25</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2593,7 +2596,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>672.04</v>
+        <v>931.99</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2601,7 +2604,7 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>672.6</v>
+        <v>932.73</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2609,7 +2612,7 @@
         <v>142</v>
       </c>
       <c r="B141">
-        <v>673.15</v>
+        <v>933.48</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2617,7 +2620,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>673.71</v>
+        <v>934.22</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2625,7 +2628,7 @@
         <v>144</v>
       </c>
       <c r="B143">
-        <v>674.27</v>
+        <v>934.96</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2633,7 +2636,7 @@
         <v>145</v>
       </c>
       <c r="B144">
-        <v>674.83</v>
+        <v>935.71</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2641,7 +2644,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>675.39</v>
+        <v>936.45</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2649,7 +2652,7 @@
         <v>147</v>
       </c>
       <c r="B146">
-        <v>675.95</v>
+        <v>937.2</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2657,7 +2660,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>676.51</v>
+        <v>937.95</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2665,7 +2668,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>677.0700000000001</v>
+        <v>938.7</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2673,7 +2676,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>677.63</v>
+        <v>939.4400000000001</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2681,7 +2684,7 @@
         <v>151</v>
       </c>
       <c r="B150">
-        <v>678.1900000000001</v>
+        <v>940.1900000000001</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2689,7 +2692,7 @@
         <v>152</v>
       </c>
       <c r="B151">
-        <v>678.75</v>
+        <v>940.9400000000001</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2697,7 +2700,7 @@
         <v>153</v>
       </c>
       <c r="B152">
-        <v>679.3099999999999</v>
+        <v>941.6900000000001</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2705,7 +2708,7 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>679.87</v>
+        <v>942.4400000000001</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2713,7 +2716,7 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>680.4400000000001</v>
+        <v>943.1900000000001</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2721,7 +2724,7 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>681</v>
+        <v>943.9400000000001</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2729,7 +2732,7 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>681.5700000000001</v>
+        <v>944.7</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2737,7 +2740,7 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>682.13</v>
+        <v>945.45</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2745,7 +2748,7 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>682.7</v>
+        <v>946.2</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2753,7 +2756,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>683.26</v>
+        <v>946.96</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2761,7 +2764,7 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>683.83</v>
+        <v>947.71</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2769,7 +2772,7 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>684.39</v>
+        <v>948.47</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2777,7 +2780,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>684.95</v>
+        <v>949.22</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2785,7 +2788,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>685.52</v>
+        <v>949.9400000000001</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2793,7 +2796,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>686.08</v>
+        <v>950.66</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2801,7 +2804,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>686.65</v>
+        <v>951.38</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2809,7 +2812,7 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>687.21</v>
+        <v>952.1</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2817,7 +2820,7 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>687.78</v>
+        <v>952.8200000000001</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2825,7 +2828,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>688.34</v>
+        <v>953.55</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2833,7 +2836,7 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>688.91</v>
+        <v>954.27</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2841,7 +2844,7 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>689.48</v>
+        <v>954.99</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2849,7 +2852,7 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>690.05</v>
+        <v>955.72</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2857,7 +2860,7 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>690.61</v>
+        <v>956.4400000000001</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2865,7 +2868,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>691.1799999999999</v>
+        <v>957.17</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2873,7 +2876,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>691.75</v>
+        <v>957.89</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2881,7 +2884,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>692.3200000000001</v>
+        <v>958.62</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2889,7 +2892,7 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>692.89</v>
+        <v>959.35</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2897,7 +2900,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>693.46</v>
+        <v>960.0700000000001</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2905,7 +2908,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>694.03</v>
+        <v>960.8</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2913,7 +2916,7 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>694.61</v>
+        <v>961.53</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2921,7 +2924,7 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>695.1799999999999</v>
+        <v>962.26</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2929,7 +2932,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>695.75</v>
+        <v>962.99</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2937,7 +2940,7 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>696.3200000000001</v>
+        <v>963.72</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2945,7 +2948,7 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>696.9</v>
+        <v>964.45</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2953,7 +2956,7 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>697.47</v>
+        <v>965.1799999999999</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2961,7 +2964,7 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>698.04</v>
+        <v>965.91</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2969,7 +2972,7 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>698.62</v>
+        <v>966.65</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2977,7 +2980,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>699.1900000000001</v>
+        <v>967.38</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2985,7 +2988,7 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>699.77</v>
+        <v>968.11</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2993,7 +2996,7 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>700.35</v>
+        <v>968.85</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3001,7 +3004,7 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>700.92</v>
+        <v>969.58</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3009,7 +3012,7 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>701.5</v>
+        <v>970.3200000000001</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3017,7 +3020,7 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>702.0599999999999</v>
+        <v>971.05</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3025,7 +3028,7 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>702.62</v>
+        <v>971.64</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3033,7 +3036,7 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>703.1799999999999</v>
+        <v>972.23</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3041,7 +3044,7 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>703.74</v>
+        <v>972.8200000000001</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3049,7 +3052,7 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>704.3</v>
+        <v>973.41</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3057,7 +3060,7 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>704.86</v>
+        <v>974</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3065,7 +3068,7 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>705.42</v>
+        <v>974.59</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3073,7 +3076,7 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>705.98</v>
+        <v>975.1900000000001</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3081,7 +3084,7 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>706.55</v>
+        <v>975.78</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3089,7 +3092,7 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>707.11</v>
+        <v>976.37</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3097,7 +3100,7 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>707.67</v>
+        <v>976.96</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3105,7 +3108,7 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>708.24</v>
+        <v>977.5599999999999</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3113,7 +3116,7 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>708.8</v>
+        <v>978.15</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3121,7 +3124,7 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>709.37</v>
+        <v>978.74</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3129,7 +3132,7 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>709.9299999999999</v>
+        <v>979.34</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3137,7 +3140,7 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>710.5</v>
+        <v>979.9299999999999</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3145,7 +3148,7 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>711.0599999999999</v>
+        <v>980.53</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3153,7 +3156,7 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>711.63</v>
+        <v>981.12</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3161,7 +3164,7 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>712.2</v>
+        <v>981.72</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3169,7 +3172,7 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>712.76</v>
+        <v>982.3200000000001</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3177,7 +3180,7 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>713.33</v>
+        <v>982.91</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3185,7 +3188,7 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>713.9</v>
+        <v>983.51</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3193,7 +3196,7 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>714.47</v>
+        <v>984.11</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3201,7 +3204,7 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>715.04</v>
+        <v>984.71</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3209,7 +3212,7 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>715.61</v>
+        <v>985.3</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3217,7 +3220,7 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>716.1799999999999</v>
+        <v>985.9</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3225,7 +3228,7 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>716.75</v>
+        <v>986.5</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3233,7 +3236,7 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>717.3200000000001</v>
+        <v>987.1</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3241,7 +3244,7 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>717.89</v>
+        <v>987.7</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3249,7 +3252,7 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>718.46</v>
+        <v>988.3</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3257,7 +3260,7 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>719.04</v>
+        <v>988.9</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3265,7 +3268,7 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>719.86</v>
+        <v>989.5</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3273,7 +3276,7 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>720.6799999999999</v>
+        <v>990.13</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3281,7 +3284,7 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>721.51</v>
+        <v>990.76</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3289,7 +3292,7 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>722.33</v>
+        <v>991.4</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3297,7 +3300,7 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>723.15</v>
+        <v>992.03</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3305,7 +3308,7 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>723.98</v>
+        <v>992.67</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3313,7 +3316,7 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>724.8099999999999</v>
+        <v>993.3</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3321,7 +3324,7 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>725.63</v>
+        <v>993.9299999999999</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3329,7 +3332,7 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>726.46</v>
+        <v>994.5700000000001</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3337,7 +3340,7 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>727.29</v>
+        <v>995.21</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3345,7 +3348,7 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>728.12</v>
+        <v>995.84</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3353,7 +3356,7 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>728.95</v>
+        <v>996.48</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3361,7 +3364,7 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>729.78</v>
+        <v>997.11</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3369,7 +3372,7 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>730.62</v>
+        <v>997.75</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3377,7 +3380,7 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>731.45</v>
+        <v>998.39</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3385,7 +3388,7 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>732.29</v>
+        <v>999.03</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3393,7 +3396,7 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>733.12</v>
+        <v>999.67</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3401,7 +3404,7 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>733.96</v>
+        <v>1000.3</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3409,7 +3412,7 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>734.8</v>
+        <v>1000.94</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3417,7 +3420,7 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>735.64</v>
+        <v>1001.58</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3425,7 +3428,7 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>736.48</v>
+        <v>1002.22</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3433,7 +3436,7 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>737.3200000000001</v>
+        <v>1002.86</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3441,7 +3444,7 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>738.16</v>
+        <v>1003.5</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3449,7 +3452,7 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>739</v>
+        <v>1004.15</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3457,7 +3460,7 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>739.84</v>
+        <v>1004.79</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3465,7 +3468,7 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>740.6900000000001</v>
+        <v>1005.43</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3473,7 +3476,7 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>741.53</v>
+        <v>1006.07</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3481,7 +3484,7 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>742.38</v>
+        <v>1006.71</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3489,7 +3492,7 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>743.23</v>
+        <v>1007.36</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3497,7 +3500,7 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>744.08</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3505,7 +3508,7 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>744.9299999999999</v>
+        <v>1008.65</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3513,7 +3516,7 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>746.0700000000001</v>
+        <v>1009.29</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3521,7 +3524,7 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>747.21</v>
+        <v>1010.02</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3529,7 +3532,7 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>748.36</v>
+        <v>1010.76</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3537,7 +3540,7 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>749.51</v>
+        <v>1011.49</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3545,7 +3548,7 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>750.65</v>
+        <v>1012.22</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3553,7 +3556,7 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>751.8</v>
+        <v>1012.96</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3561,7 +3564,7 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>752.96</v>
+        <v>1013.69</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3569,7 +3572,7 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>754.11</v>
+        <v>1014.43</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3577,7 +3580,7 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>755.27</v>
+        <v>1015.16</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3585,7 +3588,7 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>756.42</v>
+        <v>1015.9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3593,7 +3596,7 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>757.58</v>
+        <v>1016.64</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3601,7 +3604,7 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>758.74</v>
+        <v>1017.38</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3609,7 +3612,7 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>759.9</v>
+        <v>1018.11</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3617,7 +3620,7 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>761.0700000000001</v>
+        <v>1018.85</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3625,7 +3628,7 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>762.23</v>
+        <v>1019.59</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3633,7 +3636,7 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>763.4</v>
+        <v>1020.33</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3641,7 +3644,7 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>764.5700000000001</v>
+        <v>1021.07</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3649,7 +3652,7 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>765.74</v>
+        <v>1021.81</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3657,7 +3660,7 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>766.92</v>
+        <v>1022.55</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3665,7 +3668,7 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>768.09</v>
+        <v>1023.3</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3673,7 +3676,7 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>769.27</v>
+        <v>1024.04</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3681,7 +3684,7 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>770.45</v>
+        <v>1024.78</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3689,7 +3692,7 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>771.63</v>
+        <v>1025.53</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3697,7 +3700,7 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>772.8099999999999</v>
+        <v>1026.27</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3705,7 +3708,7 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>773.99</v>
+        <v>1027.01</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3713,7 +3716,7 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>775.1799999999999</v>
+        <v>1027.76</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3721,7 +3724,7 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>776.37</v>
+        <v>1028.51</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3729,7 +3732,7 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>777.5599999999999</v>
+        <v>1029.25</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3737,7 +3740,7 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>778.75</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3745,7 +3748,7 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>779.9400000000001</v>
+        <v>1030.75</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3753,7 +3756,7 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>780.9</v>
+        <v>1031.49</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3761,7 +3764,7 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>781.87</v>
+        <v>1032.18</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3769,7 +3772,7 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>782.83</v>
+        <v>1032.87</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3777,7 +3780,7 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>783.8</v>
+        <v>1033.57</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3785,7 +3788,7 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>784.77</v>
+        <v>1034.26</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3793,7 +3796,7 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>785.74</v>
+        <v>1034.95</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3801,7 +3804,7 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>786.71</v>
+        <v>1035.65</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3809,7 +3812,7 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>787.6799999999999</v>
+        <v>1036.34</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3817,7 +3820,7 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>788.65</v>
+        <v>1037.04</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3825,7 +3828,7 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>789.63</v>
+        <v>1037.73</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3833,7 +3836,7 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>790.6</v>
+        <v>1038.43</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3841,7 +3844,7 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>791.58</v>
+        <v>1039.12</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3849,7 +3852,7 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>792.55</v>
+        <v>1039.82</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3857,7 +3860,7 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>793.53</v>
+        <v>1040.52</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3865,7 +3868,7 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>794.51</v>
+        <v>1041.22</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3873,7 +3876,7 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>795.49</v>
+        <v>1041.92</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3881,7 +3884,7 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>796.48</v>
+        <v>1042.61</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3889,7 +3892,7 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>797.46</v>
+        <v>1043.31</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3897,7 +3900,7 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>798.4400000000001</v>
+        <v>1044.01</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3905,7 +3908,7 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>799.4299999999999</v>
+        <v>1044.71</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3913,7 +3916,7 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>800.42</v>
+        <v>1045.41</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -3921,7 +3924,7 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>801.41</v>
+        <v>1046.11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3929,7 +3932,7 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>802.4</v>
+        <v>1046.82</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3937,7 +3940,7 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>803.39</v>
+        <v>1047.52</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3945,7 +3948,7 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>804.38</v>
+        <v>1048.22</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3953,7 +3956,7 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>805.37</v>
+        <v>1048.92</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3961,7 +3964,7 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>806.37</v>
+        <v>1049.63</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -3969,7 +3972,7 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>807.36</v>
+        <v>1050.33</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3977,7 +3980,7 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>808.36</v>
+        <v>1051.04</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3985,7 +3988,7 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>809.36</v>
+        <v>1051.74</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3993,7 +3996,7 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>810.36</v>
+        <v>1052.45</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4001,7 +4004,7 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>811</v>
+        <v>1053.15</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4009,7 +4012,7 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>811.64</v>
+        <v>1054.15</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4017,7 +4020,7 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>812.28</v>
+        <v>1055.16</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4025,7 +4028,7 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>812.9299999999999</v>
+        <v>1056.16</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4033,7 +4036,7 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>813.5700000000001</v>
+        <v>1057.17</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4041,7 +4044,7 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>814.21</v>
+        <v>1058.18</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4049,7 +4052,7 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>814.86</v>
+        <v>1059.19</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4057,7 +4060,7 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>815.5</v>
+        <v>1060.2</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4065,7 +4068,7 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>816.15</v>
+        <v>1061.21</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4073,7 +4076,7 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>816.79</v>
+        <v>1062.22</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4081,7 +4084,7 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>817.4400000000001</v>
+        <v>1063.23</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4089,7 +4092,7 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>818.08</v>
+        <v>1064.25</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4097,7 +4100,7 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>818.73</v>
+        <v>1065.26</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4105,7 +4108,7 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>819.38</v>
+        <v>1066.28</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4113,7 +4116,7 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>820.03</v>
+        <v>1067.29</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4121,7 +4124,7 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>820.6799999999999</v>
+        <v>1068.31</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4129,7 +4132,7 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>821.3200000000001</v>
+        <v>1069.33</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4137,7 +4140,7 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>821.97</v>
+        <v>1070.35</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4145,7 +4148,7 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>822.62</v>
+        <v>1071.37</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4153,7 +4156,7 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>823.27</v>
+        <v>1072.39</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4161,7 +4164,7 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>823.9299999999999</v>
+        <v>1073.41</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4169,7 +4172,7 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>824.58</v>
+        <v>1074.44</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4177,7 +4180,7 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>825.23</v>
+        <v>1075.46</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4185,7 +4188,7 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>825.88</v>
+        <v>1076.49</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4193,7 +4196,7 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>826.54</v>
+        <v>1077.51</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4201,7 +4204,7 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>827.1900000000001</v>
+        <v>1078.54</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4209,7 +4212,7 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>827.84</v>
+        <v>1079.57</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4217,7 +4220,7 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>828.5</v>
+        <v>1080.6</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4225,7 +4228,7 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>829.15</v>
+        <v>1081.63</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4233,7 +4236,7 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>829.8099999999999</v>
+        <v>1082.66</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4241,7 +4244,7 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>830.37</v>
+        <v>1083.69</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4249,7 +4252,7 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>830.92</v>
+        <v>1084.59</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4257,7 +4260,7 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>831.48</v>
+        <v>1085.49</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4265,7 +4268,7 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>832.04</v>
+        <v>1086.39</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4273,7 +4276,7 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>832.6</v>
+        <v>1087.29</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4281,7 +4284,7 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>833.15</v>
+        <v>1088.19</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4289,7 +4292,7 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>833.71</v>
+        <v>1089.09</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4297,7 +4300,7 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>834.27</v>
+        <v>1089.99</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4305,7 +4308,7 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>834.83</v>
+        <v>1090.89</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4313,7 +4316,7 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>835.39</v>
+        <v>1091.8</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4321,7 +4324,7 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>835.95</v>
+        <v>1092.7</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4329,7 +4332,7 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>836.51</v>
+        <v>1093.61</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4337,7 +4340,7 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>837.0700000000001</v>
+        <v>1094.51</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4345,7 +4348,7 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>837.63</v>
+        <v>1095.42</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4353,7 +4356,7 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>838.2</v>
+        <v>1096.33</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4361,7 +4364,7 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>838.76</v>
+        <v>1097.23</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4369,7 +4372,7 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>839.3200000000001</v>
+        <v>1098.14</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4377,7 +4380,7 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>839.88</v>
+        <v>1099.05</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4385,7 +4388,7 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>840.45</v>
+        <v>1099.96</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4393,7 +4396,7 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>841.01</v>
+        <v>1100.87</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4401,7 +4404,7 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>841.58</v>
+        <v>1101.79</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4409,7 +4412,15 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>842.14</v>
+        <v>1102.7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367">
+        <v>1103.61</v>
       </c>
     </row>
   </sheetData>
